--- a/Folgen.xlsx
+++ b/Folgen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="1145">
   <si>
     <t>Folge</t>
   </si>
@@ -3362,73 +3362,76 @@
     <t>Stade</t>
   </si>
   <si>
-    <t>Heppenheim</t>
+    <t>Heppenheim (Bergstraße)</t>
   </si>
   <si>
     <t>Ludwigshafen</t>
   </si>
   <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>Konstanz</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Erfurt</t>
+  </si>
+  <si>
+    <t>Weimar</t>
+  </si>
+  <si>
+    <t>Nürnberg</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
     <t>Bern</t>
-  </si>
-  <si>
-    <t>Leipzig</t>
-  </si>
-  <si>
-    <t>Düsseldorf</t>
-  </si>
-  <si>
-    <t>Konstanz</t>
-  </si>
-  <si>
-    <t>Münster</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Erfurt</t>
-  </si>
-  <si>
-    <t>Weimar</t>
-  </si>
-  <si>
-    <t>Nürnberg</t>
-  </si>
-  <si>
-    <t>Dresden</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Saarland</t>
-  </si>
-  <si>
-    <t>Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t>Baden-Württemberg</t>
-  </si>
-  <si>
-    <t>Hessen</t>
-  </si>
-  <si>
-    <t>Schleswig-Holstein</t>
-  </si>
-  <si>
-    <t>Bayern</t>
-  </si>
-  <si>
-    <t>Niedersachsen</t>
-  </si>
-  <si>
-    <t>Rheinland-Pfalz</t>
   </si>
   <si>
     <t>Sachsen</t>
@@ -3537,7 +3540,7 @@
         <v>1096</v>
       </c>
       <c r="G2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="3">
@@ -3560,7 +3563,7 @@
         <v>1131</v>
       </c>
       <c r="G3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4">
@@ -3583,7 +3586,7 @@
         <v>1132</v>
       </c>
       <c r="G4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5">
@@ -3606,7 +3609,7 @@
         <v>1133</v>
       </c>
       <c r="G5" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6">
@@ -3629,7 +3632,7 @@
         <v>1132</v>
       </c>
       <c r="G6" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7">
@@ -3652,7 +3655,7 @@
         <v>1134</v>
       </c>
       <c r="G7" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="8">
@@ -3675,7 +3678,7 @@
         <v>1132</v>
       </c>
       <c r="G8" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="9">
@@ -3698,7 +3701,7 @@
         <v>1135</v>
       </c>
       <c r="G9" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10">
@@ -3721,7 +3724,7 @@
         <v>1096</v>
       </c>
       <c r="G10" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11">
@@ -3744,7 +3747,7 @@
         <v>1096</v>
       </c>
       <c r="G11" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="12">
@@ -3767,7 +3770,7 @@
         <v>1096</v>
       </c>
       <c r="G12" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13">
@@ -3790,7 +3793,7 @@
         <v>1102</v>
       </c>
       <c r="G13" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14">
@@ -3813,7 +3816,7 @@
         <v>1103</v>
       </c>
       <c r="G14" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="15">
@@ -3836,7 +3839,7 @@
         <v>1136</v>
       </c>
       <c r="G15" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="16">
@@ -3859,7 +3862,7 @@
         <v>1133</v>
       </c>
       <c r="G16" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="17">
@@ -3882,7 +3885,7 @@
         <v>1134</v>
       </c>
       <c r="G17" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="18">
@@ -3905,7 +3908,7 @@
         <v>1133</v>
       </c>
       <c r="G18" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="19">
@@ -3928,7 +3931,7 @@
         <v>1132</v>
       </c>
       <c r="G19" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="20">
@@ -3951,7 +3954,7 @@
         <v>1135</v>
       </c>
       <c r="G20" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="21">
@@ -3974,7 +3977,7 @@
         <v>1132</v>
       </c>
       <c r="G21" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="22">
@@ -3997,7 +4000,7 @@
         <v>1096</v>
       </c>
       <c r="G22" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="23">
@@ -4020,7 +4023,7 @@
         <v>1103</v>
       </c>
       <c r="G23" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="24">
@@ -4043,7 +4046,7 @@
         <v>1102</v>
       </c>
       <c r="G24" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="25">
@@ -4066,7 +4069,7 @@
         <v>1134</v>
       </c>
       <c r="G25" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="26">
@@ -4089,7 +4092,7 @@
         <v>1132</v>
       </c>
       <c r="G26" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="27">
@@ -4112,7 +4115,7 @@
         <v>1106</v>
       </c>
       <c r="G27" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="28">
@@ -4135,7 +4138,7 @@
         <v>1133</v>
       </c>
       <c r="G28" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="29">
@@ -4158,7 +4161,7 @@
         <v>1133</v>
       </c>
       <c r="G29" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30">
@@ -4181,7 +4184,7 @@
         <v>1135</v>
       </c>
       <c r="G30" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="31">
@@ -4204,7 +4207,7 @@
         <v>1136</v>
       </c>
       <c r="G31" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32">
@@ -4227,7 +4230,7 @@
         <v>1132</v>
       </c>
       <c r="G32" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="33">
@@ -4250,7 +4253,7 @@
         <v>1096</v>
       </c>
       <c r="G33" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="34">
@@ -4273,7 +4276,7 @@
         <v>1131</v>
       </c>
       <c r="G34" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="35">
@@ -4296,7 +4299,7 @@
         <v>1136</v>
       </c>
       <c r="G35" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="36">
@@ -4319,7 +4322,7 @@
         <v>1102</v>
       </c>
       <c r="G36" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="37">
@@ -4342,7 +4345,7 @@
         <v>1135</v>
       </c>
       <c r="G37" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="38">
@@ -4365,7 +4368,7 @@
         <v>1134</v>
       </c>
       <c r="G38" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="39">
@@ -4388,7 +4391,7 @@
         <v>1133</v>
       </c>
       <c r="G39" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="40">
@@ -4411,7 +4414,7 @@
         <v>1132</v>
       </c>
       <c r="G40" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="41">
@@ -4434,7 +4437,7 @@
         <v>1136</v>
       </c>
       <c r="G41" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="42">
@@ -4457,7 +4460,7 @@
         <v>1132</v>
       </c>
       <c r="G42" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="43">
@@ -4480,7 +4483,7 @@
         <v>1096</v>
       </c>
       <c r="G43" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="44">
@@ -4503,7 +4506,7 @@
         <v>1133</v>
       </c>
       <c r="G44" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="45">
@@ -4526,7 +4529,7 @@
         <v>1102</v>
       </c>
       <c r="G45" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="46">
@@ -4549,7 +4552,7 @@
         <v>1137</v>
       </c>
       <c r="G46" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="47">
@@ -4572,7 +4575,7 @@
         <v>1132</v>
       </c>
       <c r="G47" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="48">
@@ -4595,7 +4598,7 @@
         <v>1134</v>
       </c>
       <c r="G48" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="49">
@@ -4618,7 +4621,7 @@
         <v>1136</v>
       </c>
       <c r="G49" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="50">
@@ -4641,7 +4644,7 @@
         <v>1133</v>
       </c>
       <c r="G50" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="51">
@@ -4664,7 +4667,7 @@
         <v>1132</v>
       </c>
       <c r="G51" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="52">
@@ -4687,7 +4690,7 @@
         <v>1136</v>
       </c>
       <c r="G52" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="53">
@@ -4710,7 +4713,7 @@
         <v>1132</v>
       </c>
       <c r="G53" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="54">
@@ -4733,7 +4736,7 @@
         <v>1137</v>
       </c>
       <c r="G54" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="55">
@@ -4756,7 +4759,7 @@
         <v>1133</v>
       </c>
       <c r="G55" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="56">
@@ -4779,7 +4782,7 @@
         <v>1102</v>
       </c>
       <c r="G56" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="57">
@@ -4802,7 +4805,7 @@
         <v>1132</v>
       </c>
       <c r="G57" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="58">
@@ -4825,7 +4828,7 @@
         <v>1103</v>
       </c>
       <c r="G58" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="59">
@@ -4848,7 +4851,7 @@
         <v>1135</v>
       </c>
       <c r="G59" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="60">
@@ -4871,7 +4874,7 @@
         <v>1133</v>
       </c>
       <c r="G60" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="61">
@@ -4894,7 +4897,7 @@
         <v>1133</v>
       </c>
       <c r="G61" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="62">
@@ -4917,7 +4920,7 @@
         <v>1132</v>
       </c>
       <c r="G62" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="63">
@@ -4940,7 +4943,7 @@
         <v>1134</v>
       </c>
       <c r="G63" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="64">
@@ -4963,7 +4966,7 @@
         <v>1136</v>
       </c>
       <c r="G64" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="65">
@@ -4986,7 +4989,7 @@
         <v>1132</v>
       </c>
       <c r="G65" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="66">
@@ -5009,7 +5012,7 @@
         <v>1137</v>
       </c>
       <c r="G66" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="67">
@@ -5032,7 +5035,7 @@
         <v>1102</v>
       </c>
       <c r="G67" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="68">
@@ -5055,7 +5058,7 @@
         <v>1096</v>
       </c>
       <c r="G68" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="69">
@@ -5078,7 +5081,7 @@
         <v>1132</v>
       </c>
       <c r="G69" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="70">
@@ -5101,7 +5104,7 @@
         <v>1103</v>
       </c>
       <c r="G70" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="71">
@@ -5124,7 +5127,7 @@
         <v>1136</v>
       </c>
       <c r="G71" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="72">
@@ -5147,7 +5150,7 @@
         <v>1133</v>
       </c>
       <c r="G72" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="73">
@@ -5170,7 +5173,7 @@
         <v>1134</v>
       </c>
       <c r="G73" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="74">
@@ -5193,7 +5196,7 @@
         <v>1135</v>
       </c>
       <c r="G74" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="75">
@@ -5216,7 +5219,7 @@
         <v>1133</v>
       </c>
       <c r="G75" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="76">
@@ -5239,7 +5242,7 @@
         <v>1132</v>
       </c>
       <c r="G76" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="77">
@@ -5262,7 +5265,7 @@
         <v>1131</v>
       </c>
       <c r="G77" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="78">
@@ -5285,7 +5288,7 @@
         <v>1136</v>
       </c>
       <c r="G78" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="79">
@@ -5308,7 +5311,7 @@
         <v>1132</v>
       </c>
       <c r="G79" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="80">
@@ -5331,7 +5334,7 @@
         <v>1102</v>
       </c>
       <c r="G80" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="81">
@@ -5354,7 +5357,7 @@
         <v>1103</v>
       </c>
       <c r="G81" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="82">
@@ -5377,7 +5380,7 @@
         <v>1137</v>
       </c>
       <c r="G82" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="83">
@@ -5400,7 +5403,7 @@
         <v>1132</v>
       </c>
       <c r="G83" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="84">
@@ -5423,7 +5426,7 @@
         <v>1133</v>
       </c>
       <c r="G84" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="85">
@@ -5446,7 +5449,7 @@
         <v>1138</v>
       </c>
       <c r="G85" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="86">
@@ -5469,7 +5472,7 @@
         <v>1134</v>
       </c>
       <c r="G86" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="87">
@@ -5492,7 +5495,7 @@
         <v>1096</v>
       </c>
       <c r="G87" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="88">
@@ -5515,7 +5518,7 @@
         <v>1132</v>
       </c>
       <c r="G88" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="89">
@@ -5538,7 +5541,7 @@
         <v>1136</v>
       </c>
       <c r="G89" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="90">
@@ -5561,7 +5564,7 @@
         <v>1132</v>
       </c>
       <c r="G90" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="91">
@@ -5584,7 +5587,7 @@
         <v>1135</v>
       </c>
       <c r="G91" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="92">
@@ -5607,7 +5610,7 @@
         <v>1132</v>
       </c>
       <c r="G92" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="93">
@@ -5630,7 +5633,7 @@
         <v>1102</v>
       </c>
       <c r="G93" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="94">
@@ -5653,7 +5656,7 @@
         <v>1103</v>
       </c>
       <c r="G94" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="95">
@@ -5676,7 +5679,7 @@
         <v>1136</v>
       </c>
       <c r="G95" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="96">
@@ -5699,7 +5702,7 @@
         <v>1132</v>
       </c>
       <c r="G96" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="97">
@@ -5722,7 +5725,7 @@
         <v>1134</v>
       </c>
       <c r="G97" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="98">
@@ -5745,7 +5748,7 @@
         <v>1137</v>
       </c>
       <c r="G98" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="99">
@@ -5768,7 +5771,7 @@
         <v>1131</v>
       </c>
       <c r="G99" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="100">
@@ -5791,7 +5794,7 @@
         <v>1136</v>
       </c>
       <c r="G100" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="101">
@@ -5814,7 +5817,7 @@
         <v>1132</v>
       </c>
       <c r="G101" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="102">
@@ -5837,7 +5840,7 @@
         <v>1096</v>
       </c>
       <c r="G102" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="103">
@@ -5860,7 +5863,7 @@
         <v>1133</v>
       </c>
       <c r="G103" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="104">
@@ -5883,7 +5886,7 @@
         <v>1138</v>
       </c>
       <c r="G104" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="105">
@@ -5906,7 +5909,7 @@
         <v>1103</v>
       </c>
       <c r="G105" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="106">
@@ -5929,7 +5932,7 @@
         <v>1102</v>
       </c>
       <c r="G106" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="107">
@@ -5952,7 +5955,7 @@
         <v>1132</v>
       </c>
       <c r="G107" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="108">
@@ -5975,7 +5978,7 @@
         <v>1136</v>
       </c>
       <c r="G108" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="109">
@@ -5998,7 +6001,7 @@
         <v>1133</v>
       </c>
       <c r="G109" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="110">
@@ -6021,7 +6024,7 @@
         <v>1138</v>
       </c>
       <c r="G110" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="111">
@@ -6044,7 +6047,7 @@
         <v>1134</v>
       </c>
       <c r="G111" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112">
@@ -6067,7 +6070,7 @@
         <v>1132</v>
       </c>
       <c r="G112" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="113">
@@ -6090,7 +6093,7 @@
         <v>1096</v>
       </c>
       <c r="G113" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="114">
@@ -6113,7 +6116,7 @@
         <v>1132</v>
       </c>
       <c r="G114" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="115">
@@ -6136,7 +6139,7 @@
         <v>1136</v>
       </c>
       <c r="G115" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="116">
@@ -6159,7 +6162,7 @@
         <v>1106</v>
       </c>
       <c r="G116" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="117">
@@ -6182,7 +6185,7 @@
         <v>1131</v>
       </c>
       <c r="G117" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118">
@@ -6205,7 +6208,7 @@
         <v>1102</v>
       </c>
       <c r="G118" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="119">
@@ -6228,7 +6231,7 @@
         <v>1132</v>
       </c>
       <c r="G119" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="120">
@@ -6251,7 +6254,7 @@
         <v>1132</v>
       </c>
       <c r="G120" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="121">
@@ -6274,7 +6277,7 @@
         <v>1133</v>
       </c>
       <c r="G121" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="122">
@@ -6297,7 +6300,7 @@
         <v>1134</v>
       </c>
       <c r="G122" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="123">
@@ -6320,7 +6323,7 @@
         <v>1103</v>
       </c>
       <c r="G123" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="124">
@@ -6343,7 +6346,7 @@
         <v>1136</v>
       </c>
       <c r="G124" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="125">
@@ -6366,7 +6369,7 @@
         <v>1133</v>
       </c>
       <c r="G125" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="126">
@@ -6389,7 +6392,7 @@
         <v>1135</v>
       </c>
       <c r="G126" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="127">
@@ -6412,7 +6415,7 @@
         <v>1132</v>
       </c>
       <c r="G127" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="128">
@@ -6435,7 +6438,7 @@
         <v>1103</v>
       </c>
       <c r="G128" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="129">
@@ -6458,7 +6461,7 @@
         <v>1135</v>
       </c>
       <c r="G129" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="130">
@@ -6481,7 +6484,7 @@
         <v>1102</v>
       </c>
       <c r="G130" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="131">
@@ -6504,7 +6507,7 @@
         <v>1136</v>
       </c>
       <c r="G131" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="132">
@@ -6527,7 +6530,7 @@
         <v>1132</v>
       </c>
       <c r="G132" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="133">
@@ -6550,7 +6553,7 @@
         <v>1133</v>
       </c>
       <c r="G133" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="134">
@@ -6573,7 +6576,7 @@
         <v>1134</v>
       </c>
       <c r="G134" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="135">
@@ -6596,7 +6599,7 @@
         <v>1132</v>
       </c>
       <c r="G135" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="136">
@@ -6619,7 +6622,7 @@
         <v>1136</v>
       </c>
       <c r="G136" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="137">
@@ -6642,7 +6645,7 @@
         <v>1106</v>
       </c>
       <c r="G137" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="138">
@@ -6665,7 +6668,7 @@
         <v>1103</v>
       </c>
       <c r="G138" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="139">
@@ -6688,7 +6691,7 @@
         <v>1132</v>
       </c>
       <c r="G139" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="140">
@@ -6711,7 +6714,7 @@
         <v>1133</v>
       </c>
       <c r="G140" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="141">
@@ -6734,7 +6737,7 @@
         <v>1106</v>
       </c>
       <c r="G141" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="142">
@@ -6757,7 +6760,7 @@
         <v>1096</v>
       </c>
       <c r="G142" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="143">
@@ -6780,7 +6783,7 @@
         <v>1102</v>
       </c>
       <c r="G143" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="144">
@@ -6803,7 +6806,7 @@
         <v>1132</v>
       </c>
       <c r="G144" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="145">
@@ -6826,7 +6829,7 @@
         <v>1133</v>
       </c>
       <c r="G145" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="146">
@@ -6849,7 +6852,7 @@
         <v>1103</v>
       </c>
       <c r="G146" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="147">
@@ -6872,7 +6875,7 @@
         <v>1132</v>
       </c>
       <c r="G147" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="148">
@@ -6895,7 +6898,7 @@
         <v>1134</v>
       </c>
       <c r="G148" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="149">
@@ -6918,7 +6921,7 @@
         <v>1133</v>
       </c>
       <c r="G149" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="150">
@@ -6941,7 +6944,7 @@
         <v>1137</v>
       </c>
       <c r="G150" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="151">
@@ -6964,7 +6967,7 @@
         <v>1102</v>
       </c>
       <c r="G151" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="152">
@@ -6987,7 +6990,7 @@
         <v>1136</v>
       </c>
       <c r="G152" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="153">
@@ -7010,7 +7013,7 @@
         <v>1096</v>
       </c>
       <c r="G153" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="154">
@@ -7033,7 +7036,7 @@
         <v>1134</v>
       </c>
       <c r="G154" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="155">
@@ -7056,7 +7059,7 @@
         <v>1103</v>
       </c>
       <c r="G155" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="156">
@@ -7079,7 +7082,7 @@
         <v>1133</v>
       </c>
       <c r="G156" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="157">
@@ -7102,7 +7105,7 @@
         <v>1132</v>
       </c>
       <c r="G157" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="158">
@@ -7125,7 +7128,7 @@
         <v>1096</v>
       </c>
       <c r="G158" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="159">
@@ -7148,7 +7151,7 @@
         <v>1133</v>
       </c>
       <c r="G159" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="160">
@@ -7171,7 +7174,7 @@
         <v>1132</v>
       </c>
       <c r="G160" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="161">
@@ -7194,7 +7197,7 @@
         <v>1096</v>
       </c>
       <c r="G161" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="162">
@@ -7217,7 +7220,7 @@
         <v>1136</v>
       </c>
       <c r="G162" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="163">
@@ -7240,7 +7243,7 @@
         <v>1131</v>
       </c>
       <c r="G163" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="164">
@@ -7263,7 +7266,7 @@
         <v>1102</v>
       </c>
       <c r="G164" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="165">
@@ -7286,7 +7289,7 @@
         <v>1132</v>
       </c>
       <c r="G165" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="166">
@@ -7309,7 +7312,7 @@
         <v>1103</v>
       </c>
       <c r="G166" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="167">
@@ -7332,7 +7335,7 @@
         <v>1134</v>
       </c>
       <c r="G167" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="168">
@@ -7355,7 +7358,7 @@
         <v>1132</v>
       </c>
       <c r="G168" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="169">
@@ -7378,7 +7381,7 @@
         <v>1096</v>
       </c>
       <c r="G169" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="170">
@@ -7401,7 +7404,7 @@
         <v>1133</v>
       </c>
       <c r="G170" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="171">
@@ -7424,7 +7427,7 @@
         <v>1133</v>
       </c>
       <c r="G171" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="172">
@@ -7447,7 +7450,7 @@
         <v>1132</v>
       </c>
       <c r="G172" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="173">
@@ -7470,7 +7473,7 @@
         <v>1102</v>
       </c>
       <c r="G173" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="174">
@@ -7493,7 +7496,7 @@
         <v>1134</v>
       </c>
       <c r="G174" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="175">
@@ -7516,7 +7519,7 @@
         <v>1103</v>
       </c>
       <c r="G175" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="176">
@@ -7539,7 +7542,7 @@
         <v>1096</v>
       </c>
       <c r="G176" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="177">
@@ -7562,7 +7565,7 @@
         <v>1136</v>
       </c>
       <c r="G177" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="178">
@@ -7585,7 +7588,7 @@
         <v>1103</v>
       </c>
       <c r="G178" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="179">
@@ -7608,7 +7611,7 @@
         <v>1133</v>
       </c>
       <c r="G179" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="180">
@@ -7631,7 +7634,7 @@
         <v>1096</v>
       </c>
       <c r="G180" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="181">
@@ -7654,7 +7657,7 @@
         <v>1132</v>
       </c>
       <c r="G181" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="182">
@@ -7677,7 +7680,7 @@
         <v>1136</v>
       </c>
       <c r="G182" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="183">
@@ -7700,7 +7703,7 @@
         <v>1133</v>
       </c>
       <c r="G183" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="184">
@@ -7723,7 +7726,7 @@
         <v>1103</v>
       </c>
       <c r="G184" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="185">
@@ -7746,7 +7749,7 @@
         <v>1132</v>
       </c>
       <c r="G185" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="186">
@@ -7769,7 +7772,7 @@
         <v>1096</v>
       </c>
       <c r="G186" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="187">
@@ -7792,7 +7795,7 @@
         <v>1102</v>
       </c>
       <c r="G187" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="188">
@@ -7815,7 +7818,7 @@
         <v>1134</v>
       </c>
       <c r="G188" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="189">
@@ -7838,7 +7841,7 @@
         <v>1132</v>
       </c>
       <c r="G189" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="190">
@@ -7861,7 +7864,7 @@
         <v>1136</v>
       </c>
       <c r="G190" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="191">
@@ -7884,7 +7887,7 @@
         <v>1133</v>
       </c>
       <c r="G191" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="192">
@@ -7907,7 +7910,7 @@
         <v>1134</v>
       </c>
       <c r="G192" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="193">
@@ -7930,7 +7933,7 @@
         <v>1096</v>
       </c>
       <c r="G193" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="194">
@@ -7953,7 +7956,7 @@
         <v>1133</v>
       </c>
       <c r="G194" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="195">
@@ -7976,7 +7979,7 @@
         <v>1132</v>
       </c>
       <c r="G195" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="196">
@@ -7999,7 +8002,7 @@
         <v>1136</v>
       </c>
       <c r="G196" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="197">
@@ -8022,7 +8025,7 @@
         <v>1102</v>
       </c>
       <c r="G197" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="198">
@@ -8045,7 +8048,7 @@
         <v>1136</v>
       </c>
       <c r="G198" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="199">
@@ -8068,7 +8071,7 @@
         <v>1096</v>
       </c>
       <c r="G199" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="200">
@@ -8091,7 +8094,7 @@
         <v>1102</v>
       </c>
       <c r="G200" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="201">
@@ -8114,7 +8117,7 @@
         <v>1132</v>
       </c>
       <c r="G201" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="202">
@@ -8137,7 +8140,7 @@
         <v>1131</v>
       </c>
       <c r="G202" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="203">
@@ -8160,7 +8163,7 @@
         <v>1103</v>
       </c>
       <c r="G203" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="204">
@@ -8183,7 +8186,7 @@
         <v>1133</v>
       </c>
       <c r="G204" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="205">
@@ -8206,7 +8209,7 @@
         <v>1134</v>
       </c>
       <c r="G205" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="206">
@@ -8229,7 +8232,7 @@
         <v>1132</v>
       </c>
       <c r="G206" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="207">
@@ -8252,7 +8255,7 @@
         <v>1133</v>
       </c>
       <c r="G207" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="208">
@@ -8275,7 +8278,7 @@
         <v>1096</v>
       </c>
       <c r="G208" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="209">
@@ -8298,7 +8301,7 @@
         <v>1096</v>
       </c>
       <c r="G209" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="210">
@@ -8321,7 +8324,7 @@
         <v>1132</v>
       </c>
       <c r="G210" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="211">
@@ -8344,7 +8347,7 @@
         <v>1133</v>
       </c>
       <c r="G211" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="212">
@@ -8367,7 +8370,7 @@
         <v>1102</v>
       </c>
       <c r="G212" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="213">
@@ -8390,7 +8393,7 @@
         <v>1131</v>
       </c>
       <c r="G213" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="214">
@@ -8413,7 +8416,7 @@
         <v>1136</v>
       </c>
       <c r="G214" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="215">
@@ -8436,7 +8439,7 @@
         <v>1132</v>
       </c>
       <c r="G215" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="216">
@@ -8459,7 +8462,7 @@
         <v>1134</v>
       </c>
       <c r="G216" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="217">
@@ -8482,7 +8485,7 @@
         <v>1096</v>
       </c>
       <c r="G217" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="218">
@@ -8505,7 +8508,7 @@
         <v>1132</v>
       </c>
       <c r="G218" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="219">
@@ -8528,7 +8531,7 @@
         <v>1136</v>
       </c>
       <c r="G219" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="220">
@@ -8551,7 +8554,7 @@
         <v>1103</v>
       </c>
       <c r="G220" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="221">
@@ -8574,7 +8577,7 @@
         <v>1096</v>
       </c>
       <c r="G221" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="222">
@@ -8597,7 +8600,7 @@
         <v>1103</v>
       </c>
       <c r="G222" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="223">
@@ -8620,7 +8623,7 @@
         <v>1132</v>
       </c>
       <c r="G223" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="224">
@@ -8643,7 +8646,7 @@
         <v>1102</v>
       </c>
       <c r="G224" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="225">
@@ -8666,7 +8669,7 @@
         <v>1138</v>
       </c>
       <c r="G225" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="226">
@@ -8689,7 +8692,7 @@
         <v>1132</v>
       </c>
       <c r="G226" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="227">
@@ -8712,7 +8715,7 @@
         <v>1131</v>
       </c>
       <c r="G227" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="228">
@@ -8735,7 +8738,7 @@
         <v>1096</v>
       </c>
       <c r="G228" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="229">
@@ -8758,7 +8761,7 @@
         <v>1134</v>
       </c>
       <c r="G229" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="230">
@@ -8778,10 +8781,10 @@
         <v>1118</v>
       </c>
       <c r="F230" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G230" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="231">
@@ -8804,7 +8807,7 @@
         <v>1132</v>
       </c>
       <c r="G231" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="232">
@@ -8827,7 +8830,7 @@
         <v>1138</v>
       </c>
       <c r="G232" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="233">
@@ -8850,7 +8853,7 @@
         <v>1132</v>
       </c>
       <c r="G233" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="234">
@@ -8873,7 +8876,7 @@
         <v>1096</v>
       </c>
       <c r="G234" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="235">
@@ -8896,7 +8899,7 @@
         <v>1132</v>
       </c>
       <c r="G235" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="236">
@@ -8919,7 +8922,7 @@
         <v>1132</v>
       </c>
       <c r="G236" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="237">
@@ -8942,7 +8945,7 @@
         <v>1102</v>
       </c>
       <c r="G237" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="238">
@@ -8965,7 +8968,7 @@
         <v>1131</v>
       </c>
       <c r="G238" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="239">
@@ -8988,7 +8991,7 @@
         <v>1136</v>
       </c>
       <c r="G239" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="240">
@@ -9011,7 +9014,7 @@
         <v>1096</v>
       </c>
       <c r="G240" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="241">
@@ -9034,7 +9037,7 @@
         <v>1136</v>
       </c>
       <c r="G241" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="242">
@@ -9057,7 +9060,7 @@
         <v>1134</v>
       </c>
       <c r="G242" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="243">
@@ -9077,10 +9080,10 @@
         <v>1118</v>
       </c>
       <c r="F243" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G243" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="244">
@@ -9103,7 +9106,7 @@
         <v>1103</v>
       </c>
       <c r="G244" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="245">
@@ -9126,7 +9129,7 @@
         <v>1132</v>
       </c>
       <c r="G245" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="246">
@@ -9149,7 +9152,7 @@
         <v>1103</v>
       </c>
       <c r="G246" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="247">
@@ -9172,7 +9175,7 @@
         <v>1096</v>
       </c>
       <c r="G247" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="248">
@@ -9195,7 +9198,7 @@
         <v>1102</v>
       </c>
       <c r="G248" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="249">
@@ -9218,7 +9221,7 @@
         <v>1103</v>
       </c>
       <c r="G249" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="250">
@@ -9241,7 +9244,7 @@
         <v>1138</v>
       </c>
       <c r="G250" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="251">
@@ -9264,7 +9267,7 @@
         <v>1132</v>
       </c>
       <c r="G251" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="252">
@@ -9287,7 +9290,7 @@
         <v>1136</v>
       </c>
       <c r="G252" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="253">
@@ -9310,7 +9313,7 @@
         <v>1132</v>
       </c>
       <c r="G253" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="254">
@@ -9330,10 +9333,10 @@
         <v>1119</v>
       </c>
       <c r="F254" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G254" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="255">
@@ -9356,7 +9359,7 @@
         <v>1131</v>
       </c>
       <c r="G255" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="256">
@@ -9379,7 +9382,7 @@
         <v>1134</v>
       </c>
       <c r="G256" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="257">
@@ -9402,7 +9405,7 @@
         <v>1096</v>
       </c>
       <c r="G257" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="258">
@@ -9425,7 +9428,7 @@
         <v>1096</v>
       </c>
       <c r="G258" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="259">
@@ -9448,7 +9451,7 @@
         <v>1132</v>
       </c>
       <c r="G259" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="260">
@@ -9468,10 +9471,10 @@
         <v>1119</v>
       </c>
       <c r="F260" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G260" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="261">
@@ -9494,7 +9497,7 @@
         <v>1096</v>
       </c>
       <c r="G261" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="262">
@@ -9517,7 +9520,7 @@
         <v>1102</v>
       </c>
       <c r="G262" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="263">
@@ -9540,7 +9543,7 @@
         <v>1136</v>
       </c>
       <c r="G263" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="264">
@@ -9563,7 +9566,7 @@
         <v>1132</v>
       </c>
       <c r="G264" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="265">
@@ -9583,10 +9586,10 @@
         <v>1118</v>
       </c>
       <c r="F265" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G265" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="266">
@@ -9609,7 +9612,7 @@
         <v>1132</v>
       </c>
       <c r="G266" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="267">
@@ -9632,7 +9635,7 @@
         <v>1133</v>
       </c>
       <c r="G267" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="268">
@@ -9655,7 +9658,7 @@
         <v>1138</v>
       </c>
       <c r="G268" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="269">
@@ -9678,7 +9681,7 @@
         <v>1096</v>
       </c>
       <c r="G269" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="270">
@@ -9701,7 +9704,7 @@
         <v>1103</v>
       </c>
       <c r="G270" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="271">
@@ -9724,7 +9727,7 @@
         <v>1134</v>
       </c>
       <c r="G271" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="272">
@@ -9744,10 +9747,10 @@
         <v>1119</v>
       </c>
       <c r="F272" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G272" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="273">
@@ -9770,7 +9773,7 @@
         <v>1131</v>
       </c>
       <c r="G273" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="274">
@@ -9793,7 +9796,7 @@
         <v>1133</v>
       </c>
       <c r="G274" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="275">
@@ -9816,7 +9819,7 @@
         <v>1132</v>
       </c>
       <c r="G275" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="276">
@@ -9839,7 +9842,7 @@
         <v>1103</v>
       </c>
       <c r="G276" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="277">
@@ -9859,10 +9862,10 @@
         <v>1118</v>
       </c>
       <c r="F277" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G277" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="278">
@@ -9885,7 +9888,7 @@
         <v>1132</v>
       </c>
       <c r="G278" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="279">
@@ -9908,7 +9911,7 @@
         <v>1136</v>
       </c>
       <c r="G279" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="280">
@@ -9931,7 +9934,7 @@
         <v>1136</v>
       </c>
       <c r="G280" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="281">
@@ -9954,7 +9957,7 @@
         <v>1096</v>
       </c>
       <c r="G281" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="282">
@@ -9977,7 +9980,7 @@
         <v>1102</v>
       </c>
       <c r="G282" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="283">
@@ -10000,7 +10003,7 @@
         <v>1138</v>
       </c>
       <c r="G283" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="284">
@@ -10020,10 +10023,10 @@
         <v>1119</v>
       </c>
       <c r="F284" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G284" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="285">
@@ -10046,7 +10049,7 @@
         <v>1136</v>
       </c>
       <c r="G285" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="286">
@@ -10069,7 +10072,7 @@
         <v>1132</v>
       </c>
       <c r="G286" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="287">
@@ -10092,7 +10095,7 @@
         <v>1133</v>
       </c>
       <c r="G287" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="288">
@@ -10115,7 +10118,7 @@
         <v>1103</v>
       </c>
       <c r="G288" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="289">
@@ -10138,7 +10141,7 @@
         <v>1096</v>
       </c>
       <c r="G289" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="290">
@@ -10161,7 +10164,7 @@
         <v>1134</v>
       </c>
       <c r="G290" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="291">
@@ -10184,7 +10187,7 @@
         <v>1132</v>
       </c>
       <c r="G291" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="292">
@@ -10204,10 +10207,10 @@
         <v>1119</v>
       </c>
       <c r="F292" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G292" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="293">
@@ -10230,7 +10233,7 @@
         <v>1096</v>
       </c>
       <c r="G293" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="294">
@@ -10253,7 +10256,7 @@
         <v>1136</v>
       </c>
       <c r="G294" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="295">
@@ -10273,10 +10276,10 @@
         <v>1119</v>
       </c>
       <c r="F295" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G295" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="296">
@@ -10299,7 +10302,7 @@
         <v>1132</v>
       </c>
       <c r="G296" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="297">
@@ -10322,7 +10325,7 @@
         <v>1103</v>
       </c>
       <c r="G297" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="298">
@@ -10342,10 +10345,10 @@
         <v>1118</v>
       </c>
       <c r="F298" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G298" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="299">
@@ -10368,7 +10371,7 @@
         <v>1102</v>
       </c>
       <c r="G299" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="300">
@@ -10391,7 +10394,7 @@
         <v>1138</v>
       </c>
       <c r="G300" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="301">
@@ -10414,7 +10417,7 @@
         <v>1136</v>
       </c>
       <c r="G301" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="302">
@@ -10437,7 +10440,7 @@
         <v>1096</v>
       </c>
       <c r="G302" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="303">
@@ -10457,10 +10460,10 @@
         <v>1119</v>
       </c>
       <c r="F303" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G303" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="304">
@@ -10483,7 +10486,7 @@
         <v>1134</v>
       </c>
       <c r="G304" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="305">
@@ -10506,7 +10509,7 @@
         <v>1138</v>
       </c>
       <c r="G305" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="306">
@@ -10529,7 +10532,7 @@
         <v>1103</v>
       </c>
       <c r="G306" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="307">
@@ -10552,7 +10555,7 @@
         <v>1134</v>
       </c>
       <c r="G307" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="308">
@@ -10575,7 +10578,7 @@
         <v>1136</v>
       </c>
       <c r="G308" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="309">
@@ -10598,7 +10601,7 @@
         <v>1132</v>
       </c>
       <c r="G309" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="310">
@@ -10621,7 +10624,7 @@
         <v>1133</v>
       </c>
       <c r="G310" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="311">
@@ -10644,7 +10647,7 @@
         <v>1096</v>
       </c>
       <c r="G311" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="312">
@@ -10664,10 +10667,10 @@
         <v>1118</v>
       </c>
       <c r="F312" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G312" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="313">
@@ -10687,10 +10690,10 @@
         <v>1119</v>
       </c>
       <c r="F313" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G313" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="314">
@@ -10713,7 +10716,7 @@
         <v>1132</v>
       </c>
       <c r="G314" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="315">
@@ -10736,7 +10739,7 @@
         <v>1134</v>
       </c>
       <c r="G315" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="316">
@@ -10759,7 +10762,7 @@
         <v>1133</v>
       </c>
       <c r="G316" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="317">
@@ -10782,7 +10785,7 @@
         <v>1132</v>
       </c>
       <c r="G317" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="318">
@@ -10805,7 +10808,7 @@
         <v>1102</v>
       </c>
       <c r="G318" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="319">
@@ -10828,7 +10831,7 @@
         <v>1096</v>
       </c>
       <c r="G319" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="320">
@@ -10848,10 +10851,10 @@
         <v>1119</v>
       </c>
       <c r="F320" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G320" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="321">
@@ -10874,7 +10877,7 @@
         <v>1131</v>
       </c>
       <c r="G321" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="322">
@@ -10897,7 +10900,7 @@
         <v>1136</v>
       </c>
       <c r="G322" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="323">
@@ -10920,7 +10923,7 @@
         <v>1136</v>
       </c>
       <c r="G323" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="324">
@@ -10943,7 +10946,7 @@
         <v>1132</v>
       </c>
       <c r="G324" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="325">
@@ -10966,7 +10969,7 @@
         <v>1132</v>
       </c>
       <c r="G325" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="326">
@@ -10989,7 +10992,7 @@
         <v>1134</v>
       </c>
       <c r="G326" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="327">
@@ -11012,7 +11015,7 @@
         <v>1138</v>
       </c>
       <c r="G327" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="328">
@@ -11032,10 +11035,10 @@
         <v>1119</v>
       </c>
       <c r="F328" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G328" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="329">
@@ -11058,7 +11061,7 @@
         <v>1096</v>
       </c>
       <c r="G329" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="330">
@@ -11078,10 +11081,10 @@
         <v>1119</v>
       </c>
       <c r="F330" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G330" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="331">
@@ -11104,7 +11107,7 @@
         <v>1132</v>
       </c>
       <c r="G331" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="332">
@@ -11127,7 +11130,7 @@
         <v>1096</v>
       </c>
       <c r="G332" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="333">
@@ -11147,10 +11150,10 @@
         <v>1118</v>
       </c>
       <c r="F333" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G333" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="334">
@@ -11173,7 +11176,7 @@
         <v>1102</v>
       </c>
       <c r="G334" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="335">
@@ -11196,7 +11199,7 @@
         <v>1096</v>
       </c>
       <c r="G335" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="336">
@@ -11219,7 +11222,7 @@
         <v>1103</v>
       </c>
       <c r="G336" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="337">
@@ -11242,7 +11245,7 @@
         <v>1134</v>
       </c>
       <c r="G337" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="338">
@@ -11265,7 +11268,7 @@
         <v>1136</v>
       </c>
       <c r="G338" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="339">
@@ -11288,7 +11291,7 @@
         <v>1102</v>
       </c>
       <c r="G339" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="340">
@@ -11311,7 +11314,7 @@
         <v>1103</v>
       </c>
       <c r="G340" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="341">
@@ -11334,7 +11337,7 @@
         <v>1138</v>
       </c>
       <c r="G341" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="342">
@@ -11357,7 +11360,7 @@
         <v>1136</v>
       </c>
       <c r="G342" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="343">
@@ -11380,7 +11383,7 @@
         <v>1133</v>
       </c>
       <c r="G343" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="344">
@@ -11403,7 +11406,7 @@
         <v>1138</v>
       </c>
       <c r="G344" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="345">
@@ -11426,7 +11429,7 @@
         <v>1103</v>
       </c>
       <c r="G345" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="346">
@@ -11449,7 +11452,7 @@
         <v>1096</v>
       </c>
       <c r="G346" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="347">
@@ -11472,7 +11475,7 @@
         <v>1103</v>
       </c>
       <c r="G347" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="348">
@@ -11495,7 +11498,7 @@
         <v>1131</v>
       </c>
       <c r="G348" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="349">
@@ -11518,7 +11521,7 @@
         <v>1136</v>
       </c>
       <c r="G349" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="350">
@@ -11538,10 +11541,10 @@
         <v>1119</v>
       </c>
       <c r="F350" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G350" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="351">
@@ -11564,7 +11567,7 @@
         <v>1138</v>
       </c>
       <c r="G351" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="352">
@@ -11587,7 +11590,7 @@
         <v>1134</v>
       </c>
       <c r="G352" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="353">
@@ -11610,7 +11613,7 @@
         <v>1096</v>
       </c>
       <c r="G353" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="354">
@@ -11633,7 +11636,7 @@
         <v>1134</v>
       </c>
       <c r="G354" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="355">
@@ -11656,7 +11659,7 @@
         <v>1132</v>
       </c>
       <c r="G355" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="356">
@@ -11679,7 +11682,7 @@
         <v>1096</v>
       </c>
       <c r="G356" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="357">
@@ -11702,7 +11705,7 @@
         <v>1136</v>
       </c>
       <c r="G357" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="358">
@@ -11722,10 +11725,10 @@
         <v>1119</v>
       </c>
       <c r="F358" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G358" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="359">
@@ -11748,7 +11751,7 @@
         <v>1102</v>
       </c>
       <c r="G359" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="360">
@@ -11771,7 +11774,7 @@
         <v>1096</v>
       </c>
       <c r="G360" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="361">
@@ -11794,7 +11797,7 @@
         <v>1102</v>
       </c>
       <c r="G361" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="362">
@@ -11817,7 +11820,7 @@
         <v>1103</v>
       </c>
       <c r="G362" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="363">
@@ -11840,7 +11843,7 @@
         <v>1134</v>
       </c>
       <c r="G363" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="364">
@@ -11863,7 +11866,7 @@
         <v>1096</v>
       </c>
       <c r="G364" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="365">
@@ -11883,10 +11886,10 @@
         <v>1119</v>
       </c>
       <c r="F365" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G365" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="366">
@@ -11909,7 +11912,7 @@
         <v>1133</v>
       </c>
       <c r="G366" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="367">
@@ -11929,10 +11932,10 @@
         <v>1119</v>
       </c>
       <c r="F367" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G367" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="368">
@@ -11955,7 +11958,7 @@
         <v>1103</v>
       </c>
       <c r="G368" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="369">
@@ -11978,7 +11981,7 @@
         <v>1103</v>
       </c>
       <c r="G369" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="370">
@@ -12001,7 +12004,7 @@
         <v>1136</v>
       </c>
       <c r="G370" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="371">
@@ -12024,7 +12027,7 @@
         <v>1103</v>
       </c>
       <c r="G371" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="372">
@@ -12047,7 +12050,7 @@
         <v>1132</v>
       </c>
       <c r="G372" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="373">
@@ -12070,7 +12073,7 @@
         <v>1132</v>
       </c>
       <c r="G373" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="374">
@@ -12093,7 +12096,7 @@
         <v>1138</v>
       </c>
       <c r="G374" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="375">
@@ -12116,7 +12119,7 @@
         <v>1096</v>
       </c>
       <c r="G375" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="376">
@@ -12139,7 +12142,7 @@
         <v>1136</v>
       </c>
       <c r="G376" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="377">
@@ -12162,7 +12165,7 @@
         <v>1106</v>
       </c>
       <c r="G377" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="378">
@@ -12182,10 +12185,10 @@
         <v>1118</v>
       </c>
       <c r="F378" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G378" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="379">
@@ -12208,7 +12211,7 @@
         <v>1134</v>
       </c>
       <c r="G379" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="380">
@@ -12231,7 +12234,7 @@
         <v>1136</v>
       </c>
       <c r="G380" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="381">
@@ -12254,7 +12257,7 @@
         <v>1138</v>
       </c>
       <c r="G381" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="382">
@@ -12277,7 +12280,7 @@
         <v>1103</v>
       </c>
       <c r="G382" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="383">
@@ -12300,7 +12303,7 @@
         <v>1134</v>
       </c>
       <c r="G383" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="384">
@@ -12323,7 +12326,7 @@
         <v>1132</v>
       </c>
       <c r="G384" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="385">
@@ -12346,7 +12349,7 @@
         <v>1106</v>
       </c>
       <c r="G385" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="386">
@@ -12366,10 +12369,10 @@
         <v>1118</v>
       </c>
       <c r="F386" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G386" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="387">
@@ -12392,7 +12395,7 @@
         <v>1096</v>
       </c>
       <c r="G387" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="388">
@@ -12412,10 +12415,10 @@
         <v>1119</v>
       </c>
       <c r="F388" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G388" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="389">
@@ -12438,7 +12441,7 @@
         <v>1132</v>
       </c>
       <c r="G389" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="390">
@@ -12461,7 +12464,7 @@
         <v>1096</v>
       </c>
       <c r="G390" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="391">
@@ -12484,7 +12487,7 @@
         <v>1103</v>
       </c>
       <c r="G391" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="392">
@@ -12504,10 +12507,10 @@
         <v>1119</v>
       </c>
       <c r="F392" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G392" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="393">
@@ -12527,10 +12530,10 @@
         <v>1119</v>
       </c>
       <c r="F393" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G393" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="394">
@@ -12553,7 +12556,7 @@
         <v>1103</v>
       </c>
       <c r="G394" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="395">
@@ -12576,7 +12579,7 @@
         <v>1133</v>
       </c>
       <c r="G395" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="396">
@@ -12599,7 +12602,7 @@
         <v>1134</v>
       </c>
       <c r="G396" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="397">
@@ -12622,7 +12625,7 @@
         <v>1106</v>
       </c>
       <c r="G397" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="398">
@@ -12645,7 +12648,7 @@
         <v>1136</v>
       </c>
       <c r="G398" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="399">
@@ -12668,7 +12671,7 @@
         <v>1132</v>
       </c>
       <c r="G399" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="400">
@@ -12691,7 +12694,7 @@
         <v>1138</v>
       </c>
       <c r="G400" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="401">
@@ -12714,7 +12717,7 @@
         <v>1136</v>
       </c>
       <c r="G401" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="402">
@@ -12737,7 +12740,7 @@
         <v>1103</v>
       </c>
       <c r="G402" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="403">
@@ -12760,7 +12763,7 @@
         <v>1131</v>
       </c>
       <c r="G403" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="404">
@@ -12783,7 +12786,7 @@
         <v>1096</v>
       </c>
       <c r="G404" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="405">
@@ -12806,7 +12809,7 @@
         <v>1102</v>
       </c>
       <c r="G405" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="406">
@@ -12829,7 +12832,7 @@
         <v>1134</v>
       </c>
       <c r="G406" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="407">
@@ -12852,7 +12855,7 @@
         <v>1132</v>
       </c>
       <c r="G407" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="408">
@@ -12875,7 +12878,7 @@
         <v>1136</v>
       </c>
       <c r="G408" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="409">
@@ -12895,10 +12898,10 @@
         <v>1118</v>
       </c>
       <c r="F409" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G409" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="410">
@@ -12921,7 +12924,7 @@
         <v>1138</v>
       </c>
       <c r="G410" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="411">
@@ -12944,7 +12947,7 @@
         <v>1134</v>
       </c>
       <c r="G411" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="412">
@@ -12967,7 +12970,7 @@
         <v>1132</v>
       </c>
       <c r="G412" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="413">
@@ -12990,7 +12993,7 @@
         <v>1134</v>
       </c>
       <c r="G413" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="414">
@@ -13010,10 +13013,10 @@
         <v>1119</v>
       </c>
       <c r="F414" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G414" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="415">
@@ -13036,7 +13039,7 @@
         <v>1096</v>
       </c>
       <c r="G415" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="416">
@@ -13059,7 +13062,7 @@
         <v>1102</v>
       </c>
       <c r="G416" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="417">
@@ -13082,7 +13085,7 @@
         <v>1132</v>
       </c>
       <c r="G417" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="418">
@@ -13105,7 +13108,7 @@
         <v>1103</v>
       </c>
       <c r="G418" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="419">
@@ -13125,10 +13128,10 @@
         <v>1119</v>
       </c>
       <c r="F419" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G419" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="420">
@@ -13151,7 +13154,7 @@
         <v>1133</v>
       </c>
       <c r="G420" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="421">
@@ -13174,7 +13177,7 @@
         <v>1096</v>
       </c>
       <c r="G421" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="422">
@@ -13197,7 +13200,7 @@
         <v>1131</v>
       </c>
       <c r="G422" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="423">
@@ -13220,7 +13223,7 @@
         <v>1132</v>
       </c>
       <c r="G423" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="424">
@@ -13243,7 +13246,7 @@
         <v>1136</v>
       </c>
       <c r="G424" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="425">
@@ -13266,7 +13269,7 @@
         <v>1138</v>
       </c>
       <c r="G425" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="426">
@@ -13289,7 +13292,7 @@
         <v>1106</v>
       </c>
       <c r="G426" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="427">
@@ -13309,10 +13312,10 @@
         <v>1119</v>
       </c>
       <c r="F427" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G427" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="428">
@@ -13335,7 +13338,7 @@
         <v>1133</v>
       </c>
       <c r="G428" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="429">
@@ -13358,7 +13361,7 @@
         <v>1136</v>
       </c>
       <c r="G429" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="430">
@@ -13381,7 +13384,7 @@
         <v>1132</v>
       </c>
       <c r="G430" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="431">
@@ -13404,7 +13407,7 @@
         <v>1103</v>
       </c>
       <c r="G431" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="432">
@@ -13427,7 +13430,7 @@
         <v>1138</v>
       </c>
       <c r="G432" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="433">
@@ -13447,10 +13450,10 @@
         <v>1119</v>
       </c>
       <c r="F433" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G433" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="434">
@@ -13473,7 +13476,7 @@
         <v>1096</v>
       </c>
       <c r="G434" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="435">
@@ -13496,7 +13499,7 @@
         <v>1134</v>
       </c>
       <c r="G435" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="436">
@@ -13519,7 +13522,7 @@
         <v>1102</v>
       </c>
       <c r="G436" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="437">
@@ -13542,7 +13545,7 @@
         <v>1103</v>
       </c>
       <c r="G437" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="438">
@@ -13565,7 +13568,7 @@
         <v>1132</v>
       </c>
       <c r="G438" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="439">
@@ -13588,7 +13591,7 @@
         <v>1136</v>
       </c>
       <c r="G439" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="440">
@@ -13611,7 +13614,7 @@
         <v>1133</v>
       </c>
       <c r="G440" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="441">
@@ -13634,7 +13637,7 @@
         <v>1138</v>
       </c>
       <c r="G441" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="442">
@@ -13654,10 +13657,10 @@
         <v>1118</v>
       </c>
       <c r="F442" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G442" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="443">
@@ -13677,10 +13680,10 @@
         <v>1119</v>
       </c>
       <c r="F443" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G443" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="444">
@@ -13703,7 +13706,7 @@
         <v>1138</v>
       </c>
       <c r="G444" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="445">
@@ -13726,7 +13729,7 @@
         <v>1096</v>
       </c>
       <c r="G445" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="446">
@@ -13749,7 +13752,7 @@
         <v>1103</v>
       </c>
       <c r="G446" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="447">
@@ -13772,7 +13775,7 @@
         <v>1103</v>
       </c>
       <c r="G447" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="448">
@@ -13795,7 +13798,7 @@
         <v>1132</v>
       </c>
       <c r="G448" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="449">
@@ -13818,7 +13821,7 @@
         <v>1102</v>
       </c>
       <c r="G449" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="450">
@@ -13841,7 +13844,7 @@
         <v>1132</v>
       </c>
       <c r="G450" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="451">
@@ -13864,7 +13867,7 @@
         <v>1131</v>
       </c>
       <c r="G451" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="452">
@@ -13887,7 +13890,7 @@
         <v>1103</v>
       </c>
       <c r="G452" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="453">
@@ -13910,7 +13913,7 @@
         <v>1138</v>
       </c>
       <c r="G453" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="454">
@@ -13933,7 +13936,7 @@
         <v>1136</v>
       </c>
       <c r="G454" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="455">
@@ -13956,7 +13959,7 @@
         <v>1134</v>
       </c>
       <c r="G455" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="456">
@@ -13979,7 +13982,7 @@
         <v>1134</v>
       </c>
       <c r="G456" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="457">
@@ -14002,7 +14005,7 @@
         <v>1096</v>
       </c>
       <c r="G457" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="458">
@@ -14025,7 +14028,7 @@
         <v>1136</v>
       </c>
       <c r="G458" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="459">
@@ -14045,10 +14048,10 @@
         <v>1119</v>
       </c>
       <c r="F459" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G459" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="460">
@@ -14071,7 +14074,7 @@
         <v>1133</v>
       </c>
       <c r="G460" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="461">
@@ -14094,7 +14097,7 @@
         <v>1132</v>
       </c>
       <c r="G461" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="462">
@@ -14117,7 +14120,7 @@
         <v>1096</v>
       </c>
       <c r="G462" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="463">
@@ -14140,7 +14143,7 @@
         <v>1102</v>
       </c>
       <c r="G463" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="464">
@@ -14163,7 +14166,7 @@
         <v>1132</v>
       </c>
       <c r="G464" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="465">
@@ -14186,7 +14189,7 @@
         <v>1136</v>
       </c>
       <c r="G465" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="466">
@@ -14206,10 +14209,10 @@
         <v>1119</v>
       </c>
       <c r="F466" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G466" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="467">
@@ -14232,7 +14235,7 @@
         <v>1103</v>
       </c>
       <c r="G467" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="468">
@@ -14255,7 +14258,7 @@
         <v>1134</v>
       </c>
       <c r="G468" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="469">
@@ -14278,7 +14281,7 @@
         <v>1138</v>
       </c>
       <c r="G469" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="470">
@@ -14301,7 +14304,7 @@
         <v>1133</v>
       </c>
       <c r="G470" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="471">
@@ -14324,7 +14327,7 @@
         <v>1138</v>
       </c>
       <c r="G471" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="472">
@@ -14344,10 +14347,10 @@
         <v>1119</v>
       </c>
       <c r="F472" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G472" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="473">
@@ -14370,7 +14373,7 @@
         <v>1132</v>
       </c>
       <c r="G473" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="474">
@@ -14393,7 +14396,7 @@
         <v>1103</v>
       </c>
       <c r="G474" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="475">
@@ -14416,7 +14419,7 @@
         <v>1138</v>
       </c>
       <c r="G475" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="476">
@@ -14439,7 +14442,7 @@
         <v>1102</v>
       </c>
       <c r="G476" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="477">
@@ -14462,7 +14465,7 @@
         <v>1103</v>
       </c>
       <c r="G477" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="478">
@@ -14482,10 +14485,10 @@
         <v>1119</v>
       </c>
       <c r="F478" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G478" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="479">
@@ -14508,7 +14511,7 @@
         <v>1131</v>
       </c>
       <c r="G479" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="480">
@@ -14531,7 +14534,7 @@
         <v>1133</v>
       </c>
       <c r="G480" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="481">
@@ -14554,7 +14557,7 @@
         <v>1134</v>
       </c>
       <c r="G481" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="482">
@@ -14577,7 +14580,7 @@
         <v>1131</v>
       </c>
       <c r="G482" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="483">
@@ -14600,7 +14603,7 @@
         <v>1106</v>
       </c>
       <c r="G483" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="484">
@@ -14623,7 +14626,7 @@
         <v>1096</v>
       </c>
       <c r="G484" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="485">
@@ -14646,7 +14649,7 @@
         <v>1136</v>
       </c>
       <c r="G485" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="486">
@@ -14669,7 +14672,7 @@
         <v>1106</v>
       </c>
       <c r="G486" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="487">
@@ -14692,7 +14695,7 @@
         <v>1096</v>
       </c>
       <c r="G487" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="488">
@@ -14715,7 +14718,7 @@
         <v>1132</v>
       </c>
       <c r="G488" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="489">
@@ -14738,7 +14741,7 @@
         <v>1138</v>
       </c>
       <c r="G489" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="490">
@@ -14761,7 +14764,7 @@
         <v>1136</v>
       </c>
       <c r="G490" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="491">
@@ -14784,7 +14787,7 @@
         <v>1138</v>
       </c>
       <c r="G491" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="492">
@@ -14804,10 +14807,10 @@
         <v>1119</v>
       </c>
       <c r="F492" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G492" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="493">
@@ -14830,7 +14833,7 @@
         <v>1136</v>
       </c>
       <c r="G493" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="494">
@@ -14853,7 +14856,7 @@
         <v>1132</v>
       </c>
       <c r="G494" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="495">
@@ -14876,7 +14879,7 @@
         <v>1133</v>
       </c>
       <c r="G495" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="496">
@@ -14899,7 +14902,7 @@
         <v>1103</v>
       </c>
       <c r="G496" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="497">
@@ -14922,7 +14925,7 @@
         <v>1137</v>
       </c>
       <c r="G497" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="498">
@@ -14945,7 +14948,7 @@
         <v>1102</v>
       </c>
       <c r="G498" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="499">
@@ -14968,7 +14971,7 @@
         <v>1134</v>
       </c>
       <c r="G499" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="500">
@@ -14991,7 +14994,7 @@
         <v>1133</v>
       </c>
       <c r="G500" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="501">
@@ -15014,7 +15017,7 @@
         <v>1106</v>
       </c>
       <c r="G501" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="502">
@@ -15037,7 +15040,7 @@
         <v>1096</v>
       </c>
       <c r="G502" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="503">
@@ -15060,7 +15063,7 @@
         <v>1132</v>
       </c>
       <c r="G503" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="504">
@@ -15080,10 +15083,10 @@
         <v>1119</v>
       </c>
       <c r="F504" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G504" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="505">
@@ -15106,7 +15109,7 @@
         <v>1102</v>
       </c>
       <c r="G505" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="506">
@@ -15129,7 +15132,7 @@
         <v>1133</v>
       </c>
       <c r="G506" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="507">
@@ -15152,7 +15155,7 @@
         <v>1106</v>
       </c>
       <c r="G507" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="508">
@@ -15175,7 +15178,7 @@
         <v>1138</v>
       </c>
       <c r="G508" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="509">
@@ -15198,7 +15201,7 @@
         <v>1103</v>
       </c>
       <c r="G509" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="510">
@@ -15221,7 +15224,7 @@
         <v>1132</v>
       </c>
       <c r="G510" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="511">
@@ -15244,7 +15247,7 @@
         <v>1136</v>
       </c>
       <c r="G511" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="512">
@@ -15267,7 +15270,7 @@
         <v>1137</v>
       </c>
       <c r="G512" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="513">
@@ -15290,7 +15293,7 @@
         <v>1096</v>
       </c>
       <c r="G513" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="514">
@@ -15313,7 +15316,7 @@
         <v>1133</v>
       </c>
       <c r="G514" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="515">
@@ -15336,7 +15339,7 @@
         <v>1132</v>
       </c>
       <c r="G515" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="516">
@@ -15359,7 +15362,7 @@
         <v>1136</v>
       </c>
       <c r="G516" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="517">
@@ -15382,7 +15385,7 @@
         <v>1131</v>
       </c>
       <c r="G517" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="518">
@@ -15405,7 +15408,7 @@
         <v>1137</v>
       </c>
       <c r="G518" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="519">
@@ -15428,7 +15431,7 @@
         <v>1103</v>
       </c>
       <c r="G519" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="520">
@@ -15448,10 +15451,10 @@
         <v>1118</v>
       </c>
       <c r="F520" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="G520" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="521">
@@ -15474,7 +15477,7 @@
         <v>1131</v>
       </c>
       <c r="G521" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="522">
@@ -15497,7 +15500,7 @@
         <v>1138</v>
       </c>
       <c r="G522" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="523">
@@ -15517,10 +15520,10 @@
         <v>1119</v>
       </c>
       <c r="F523" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G523" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="524">
@@ -15543,7 +15546,7 @@
         <v>1133</v>
       </c>
       <c r="G524" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="525">
@@ -15566,7 +15569,7 @@
         <v>1103</v>
       </c>
       <c r="G525" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="526">
@@ -15589,7 +15592,7 @@
         <v>1133</v>
       </c>
       <c r="G526" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="527">
@@ -15612,7 +15615,7 @@
         <v>1134</v>
       </c>
       <c r="G527" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="528">
@@ -15635,7 +15638,7 @@
         <v>1132</v>
       </c>
       <c r="G528" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="529">
@@ -15658,7 +15661,7 @@
         <v>1138</v>
       </c>
       <c r="G529" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="530">
@@ -15681,7 +15684,7 @@
         <v>1137</v>
       </c>
       <c r="G530" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="531">
@@ -15704,7 +15707,7 @@
         <v>1136</v>
       </c>
       <c r="G531" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="532">
@@ -15727,7 +15730,7 @@
         <v>1132</v>
       </c>
       <c r="G532" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="533">
@@ -15747,10 +15750,10 @@
         <v>1119</v>
       </c>
       <c r="F533" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G533" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="534">
@@ -15773,7 +15776,7 @@
         <v>1106</v>
       </c>
       <c r="G534" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="535">
@@ -15796,7 +15799,7 @@
         <v>1096</v>
       </c>
       <c r="G535" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="536">
@@ -15819,7 +15822,7 @@
         <v>1132</v>
       </c>
       <c r="G536" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="537">
@@ -15842,7 +15845,7 @@
         <v>1102</v>
       </c>
       <c r="G537" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="538">
@@ -15865,7 +15868,7 @@
         <v>1103</v>
       </c>
       <c r="G538" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="539">
@@ -15888,7 +15891,7 @@
         <v>1133</v>
       </c>
       <c r="G539" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="540">
@@ -15911,7 +15914,7 @@
         <v>1138</v>
       </c>
       <c r="G540" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="541">
@@ -15934,7 +15937,7 @@
         <v>1132</v>
       </c>
       <c r="G541" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="542">
@@ -15957,7 +15960,7 @@
         <v>1096</v>
       </c>
       <c r="G542" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="543">
@@ -15980,7 +15983,7 @@
         <v>1136</v>
       </c>
       <c r="G543" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="544">
@@ -16003,7 +16006,7 @@
         <v>1137</v>
       </c>
       <c r="G544" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="545">
@@ -16026,7 +16029,7 @@
         <v>1103</v>
       </c>
       <c r="G545" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="546">
@@ -16049,7 +16052,7 @@
         <v>1137</v>
       </c>
       <c r="G546" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="547">
@@ -16069,10 +16072,10 @@
         <v>1119</v>
       </c>
       <c r="F547" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G547" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="548">
@@ -16095,7 +16098,7 @@
         <v>1106</v>
       </c>
       <c r="G548" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="549">
@@ -16118,7 +16121,7 @@
         <v>1136</v>
       </c>
       <c r="G549" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="550">
@@ -16141,7 +16144,7 @@
         <v>1135</v>
       </c>
       <c r="G550" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="551">
@@ -16164,7 +16167,7 @@
         <v>1133</v>
       </c>
       <c r="G551" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="552">
@@ -16187,7 +16190,7 @@
         <v>1137</v>
       </c>
       <c r="G552" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="553">
@@ -16210,7 +16213,7 @@
         <v>1134</v>
       </c>
       <c r="G553" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="554">
@@ -16233,7 +16236,7 @@
         <v>1131</v>
       </c>
       <c r="G554" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="555">
@@ -16256,7 +16259,7 @@
         <v>1103</v>
       </c>
       <c r="G555" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="556">
@@ -16279,7 +16282,7 @@
         <v>1133</v>
       </c>
       <c r="G556" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="557">
@@ -16302,7 +16305,7 @@
         <v>1096</v>
       </c>
       <c r="G557" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="558">
@@ -16322,10 +16325,10 @@
         <v>1119</v>
       </c>
       <c r="F558" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G558" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="559">
@@ -16348,7 +16351,7 @@
         <v>1138</v>
       </c>
       <c r="G559" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="560">
@@ -16371,7 +16374,7 @@
         <v>1137</v>
       </c>
       <c r="G560" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="561">
@@ -16394,7 +16397,7 @@
         <v>1102</v>
       </c>
       <c r="G561" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="562">
@@ -16417,7 +16420,7 @@
         <v>1135</v>
       </c>
       <c r="G562" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="563">
@@ -16440,7 +16443,7 @@
         <v>1106</v>
       </c>
       <c r="G563" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="564">
@@ -16463,7 +16466,7 @@
         <v>1132</v>
       </c>
       <c r="G564" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="565">
@@ -16486,7 +16489,7 @@
         <v>1134</v>
       </c>
       <c r="G565" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="566">
@@ -16509,7 +16512,7 @@
         <v>1137</v>
       </c>
       <c r="G566" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="567">
@@ -16532,7 +16535,7 @@
         <v>1136</v>
       </c>
       <c r="G567" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="568">
@@ -16555,7 +16558,7 @@
         <v>1103</v>
       </c>
       <c r="G568" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="569">
@@ -16578,7 +16581,7 @@
         <v>1138</v>
       </c>
       <c r="G569" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="570">
@@ -16601,7 +16604,7 @@
         <v>1132</v>
       </c>
       <c r="G570" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="571">
@@ -16624,7 +16627,7 @@
         <v>1138</v>
       </c>
       <c r="G571" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="572">
@@ -16647,7 +16650,7 @@
         <v>1133</v>
       </c>
       <c r="G572" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="573">
@@ -16670,7 +16673,7 @@
         <v>1102</v>
       </c>
       <c r="G573" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="574">
@@ -16693,7 +16696,7 @@
         <v>1132</v>
       </c>
       <c r="G574" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="575">
@@ -16716,7 +16719,7 @@
         <v>1135</v>
       </c>
       <c r="G575" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="576">
@@ -16739,7 +16742,7 @@
         <v>1134</v>
       </c>
       <c r="G576" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="577">
@@ -16762,7 +16765,7 @@
         <v>1137</v>
       </c>
       <c r="G577" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="578">
@@ -16782,10 +16785,10 @@
         <v>1119</v>
       </c>
       <c r="F578" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G578" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="579">
@@ -16808,7 +16811,7 @@
         <v>1136</v>
       </c>
       <c r="G579" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="580">
@@ -16831,7 +16834,7 @@
         <v>1131</v>
       </c>
       <c r="G580" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="581">
@@ -16854,7 +16857,7 @@
         <v>1096</v>
       </c>
       <c r="G581" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="582">
@@ -16874,10 +16877,10 @@
         <v>1119</v>
       </c>
       <c r="F582" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G582" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="583">
@@ -16900,7 +16903,7 @@
         <v>1137</v>
       </c>
       <c r="G583" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="584">
@@ -16923,7 +16926,7 @@
         <v>1136</v>
       </c>
       <c r="G584" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="585">
@@ -16946,7 +16949,7 @@
         <v>1133</v>
       </c>
       <c r="G585" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="586">
@@ -16969,7 +16972,7 @@
         <v>1133</v>
       </c>
       <c r="G586" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="587">
@@ -16992,7 +16995,7 @@
         <v>1137</v>
       </c>
       <c r="G587" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="588">
@@ -17015,7 +17018,7 @@
         <v>1096</v>
       </c>
       <c r="G588" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="589">
@@ -17035,10 +17038,10 @@
         <v>1119</v>
       </c>
       <c r="F589" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G589" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="590">
@@ -17061,7 +17064,7 @@
         <v>1132</v>
       </c>
       <c r="G590" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="591">
@@ -17084,7 +17087,7 @@
         <v>1133</v>
       </c>
       <c r="G591" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="592">
@@ -17107,7 +17110,7 @@
         <v>1103</v>
       </c>
       <c r="G592" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="593">
@@ -17130,7 +17133,7 @@
         <v>1135</v>
       </c>
       <c r="G593" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="594">
@@ -17153,7 +17156,7 @@
         <v>1138</v>
       </c>
       <c r="G594" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="595">
@@ -17176,7 +17179,7 @@
         <v>1137</v>
       </c>
       <c r="G595" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="596">
@@ -17199,7 +17202,7 @@
         <v>1134</v>
       </c>
       <c r="G596" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="597">
@@ -17222,7 +17225,7 @@
         <v>1138</v>
       </c>
       <c r="G597" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="598">
@@ -17245,7 +17248,7 @@
         <v>1132</v>
       </c>
       <c r="G598" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="599">
@@ -17268,7 +17271,7 @@
         <v>1136</v>
       </c>
       <c r="G599" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="600">
@@ -17291,7 +17294,7 @@
         <v>1102</v>
       </c>
       <c r="G600" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="601">
@@ -17314,7 +17317,7 @@
         <v>1106</v>
       </c>
       <c r="G601" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="602">
@@ -17334,10 +17337,10 @@
         <v>1119</v>
       </c>
       <c r="F602" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G602" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="603">
@@ -17360,7 +17363,7 @@
         <v>1106</v>
       </c>
       <c r="G603" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="604">
@@ -17383,7 +17386,7 @@
         <v>1133</v>
       </c>
       <c r="G604" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="605">
@@ -17406,7 +17409,7 @@
         <v>1102</v>
       </c>
       <c r="G605" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="606">
@@ -17429,7 +17432,7 @@
         <v>1132</v>
       </c>
       <c r="G606" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="607">
@@ -17452,7 +17455,7 @@
         <v>1138</v>
       </c>
       <c r="G607" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="608">
@@ -17475,7 +17478,7 @@
         <v>1106</v>
       </c>
       <c r="G608" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="609">
@@ -17498,7 +17501,7 @@
         <v>1135</v>
       </c>
       <c r="G609" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="610">
@@ -17521,7 +17524,7 @@
         <v>1134</v>
       </c>
       <c r="G610" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="611">
@@ -17544,7 +17547,7 @@
         <v>1103</v>
       </c>
       <c r="G611" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="612">
@@ -17567,7 +17570,7 @@
         <v>1137</v>
       </c>
       <c r="G612" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="613">
@@ -17587,10 +17590,10 @@
         <v>1119</v>
       </c>
       <c r="F613" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G613" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="614">
@@ -17613,7 +17616,7 @@
         <v>1136</v>
       </c>
       <c r="G614" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="615">
@@ -17636,7 +17639,7 @@
         <v>1131</v>
       </c>
       <c r="G615" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="616">
@@ -17659,7 +17662,7 @@
         <v>1137</v>
       </c>
       <c r="G616" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="617">
@@ -17682,7 +17685,7 @@
         <v>1096</v>
       </c>
       <c r="G617" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="618">
@@ -17705,7 +17708,7 @@
         <v>1136</v>
       </c>
       <c r="G618" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="619">
@@ -17728,7 +17731,7 @@
         <v>1133</v>
       </c>
       <c r="G619" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="620">
@@ -17748,10 +17751,10 @@
         <v>1119</v>
       </c>
       <c r="F620" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G620" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="621">
@@ -17774,7 +17777,7 @@
         <v>1132</v>
       </c>
       <c r="G621" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="622">
@@ -17797,7 +17800,7 @@
         <v>1137</v>
       </c>
       <c r="G622" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="623">
@@ -17820,7 +17823,7 @@
         <v>1137</v>
       </c>
       <c r="G623" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="624">
@@ -17843,7 +17846,7 @@
         <v>1138</v>
       </c>
       <c r="G624" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="625">
@@ -17866,7 +17869,7 @@
         <v>1096</v>
       </c>
       <c r="G625" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="626">
@@ -17889,7 +17892,7 @@
         <v>1132</v>
       </c>
       <c r="G626" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="627">
@@ -17912,7 +17915,7 @@
         <v>1133</v>
       </c>
       <c r="G627" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="628">
@@ -17935,7 +17938,7 @@
         <v>1135</v>
       </c>
       <c r="G628" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="629">
@@ -17958,7 +17961,7 @@
         <v>1103</v>
       </c>
       <c r="G629" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="630">
@@ -17981,7 +17984,7 @@
         <v>1138</v>
       </c>
       <c r="G630" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="631">
@@ -18004,7 +18007,7 @@
         <v>1136</v>
       </c>
       <c r="G631" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="632">
@@ -18027,7 +18030,7 @@
         <v>1102</v>
       </c>
       <c r="G632" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="633">
@@ -18050,7 +18053,7 @@
         <v>1106</v>
       </c>
       <c r="G633" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="634">
@@ -18073,7 +18076,7 @@
         <v>1133</v>
       </c>
       <c r="G634" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="635">
@@ -18093,10 +18096,10 @@
         <v>1119</v>
       </c>
       <c r="F635" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G635" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="636">
@@ -18119,7 +18122,7 @@
         <v>1102</v>
       </c>
       <c r="G636" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="637">
@@ -18142,7 +18145,7 @@
         <v>1133</v>
       </c>
       <c r="G637" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="638">
@@ -18165,7 +18168,7 @@
         <v>1096</v>
       </c>
       <c r="G638" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="639">
@@ -18188,7 +18191,7 @@
         <v>1138</v>
       </c>
       <c r="G639" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="640">
@@ -18211,7 +18214,7 @@
         <v>1135</v>
       </c>
       <c r="G640" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="641">
@@ -18234,7 +18237,7 @@
         <v>1137</v>
       </c>
       <c r="G641" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="642">
@@ -18257,7 +18260,7 @@
         <v>1133</v>
       </c>
       <c r="G642" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="643">
@@ -18280,7 +18283,7 @@
         <v>1138</v>
       </c>
       <c r="G643" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="644">
@@ -18303,7 +18306,7 @@
         <v>1131</v>
       </c>
       <c r="G644" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="645">
@@ -18326,7 +18329,7 @@
         <v>1134</v>
       </c>
       <c r="G645" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="646">
@@ -18349,7 +18352,7 @@
         <v>1132</v>
       </c>
       <c r="G646" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="647">
@@ -18372,7 +18375,7 @@
         <v>1137</v>
       </c>
       <c r="G647" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="648">
@@ -18395,7 +18398,7 @@
         <v>1103</v>
       </c>
       <c r="G648" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="649">
@@ -18418,7 +18421,7 @@
         <v>1136</v>
       </c>
       <c r="G649" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="650">
@@ -18441,7 +18444,7 @@
         <v>1134</v>
       </c>
       <c r="G650" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="651">
@@ -18461,10 +18464,10 @@
         <v>1119</v>
       </c>
       <c r="F651" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G651" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="652">
@@ -18487,7 +18490,7 @@
         <v>1132</v>
       </c>
       <c r="G652" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="653">
@@ -18510,7 +18513,7 @@
         <v>1133</v>
       </c>
       <c r="G653" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="654">
@@ -18533,7 +18536,7 @@
         <v>1106</v>
       </c>
       <c r="G654" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="655">
@@ -18556,7 +18559,7 @@
         <v>1138</v>
       </c>
       <c r="G655" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="656">
@@ -18579,7 +18582,7 @@
         <v>1135</v>
       </c>
       <c r="G656" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="657">
@@ -18602,7 +18605,7 @@
         <v>1131</v>
       </c>
       <c r="G657" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="658">
@@ -18625,7 +18628,7 @@
         <v>1133</v>
       </c>
       <c r="G658" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="659">
@@ -18648,7 +18651,7 @@
         <v>1096</v>
       </c>
       <c r="G659" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="660">
@@ -18671,7 +18674,7 @@
         <v>1137</v>
       </c>
       <c r="G660" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="661">
@@ -18694,7 +18697,7 @@
         <v>1103</v>
       </c>
       <c r="G661" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="662">
@@ -18714,10 +18717,10 @@
         <v>1119</v>
       </c>
       <c r="F662" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G662" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="663">
@@ -18740,7 +18743,7 @@
         <v>1133</v>
       </c>
       <c r="G663" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="664">
@@ -18763,7 +18766,7 @@
         <v>1137</v>
       </c>
       <c r="G664" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="665">
@@ -18786,7 +18789,7 @@
         <v>1136</v>
       </c>
       <c r="G665" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="666">
@@ -18809,7 +18812,7 @@
         <v>1138</v>
       </c>
       <c r="G666" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="667">
@@ -18832,7 +18835,7 @@
         <v>1102</v>
       </c>
       <c r="G667" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="668">
@@ -18852,10 +18855,10 @@
         <v>1119</v>
       </c>
       <c r="F668" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G668" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="669">
@@ -18878,7 +18881,7 @@
         <v>1096</v>
       </c>
       <c r="G669" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="670">
@@ -18901,7 +18904,7 @@
         <v>1102</v>
       </c>
       <c r="G670" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="671">
@@ -18924,7 +18927,7 @@
         <v>1138</v>
       </c>
       <c r="G671" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="672">
@@ -18947,7 +18950,7 @@
         <v>1106</v>
       </c>
       <c r="G672" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="673">
@@ -18970,7 +18973,7 @@
         <v>1133</v>
       </c>
       <c r="G673" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="674">
@@ -18993,7 +18996,7 @@
         <v>1135</v>
       </c>
       <c r="G674" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="675">
@@ -19016,7 +19019,7 @@
         <v>1136</v>
       </c>
       <c r="G675" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="676">
@@ -19039,7 +19042,7 @@
         <v>1132</v>
       </c>
       <c r="G676" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="677">
@@ -19062,7 +19065,7 @@
         <v>1134</v>
       </c>
       <c r="G677" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="678">
@@ -19085,7 +19088,7 @@
         <v>1136</v>
       </c>
       <c r="G678" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="679">
@@ -19108,7 +19111,7 @@
         <v>1137</v>
       </c>
       <c r="G679" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="680">
@@ -19128,10 +19131,10 @@
         <v>1119</v>
       </c>
       <c r="F680" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G680" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="681">
@@ -19154,7 +19157,7 @@
         <v>1134</v>
       </c>
       <c r="G681" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="682">
@@ -19177,7 +19180,7 @@
         <v>1132</v>
       </c>
       <c r="G682" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="683">
@@ -19200,7 +19203,7 @@
         <v>1103</v>
       </c>
       <c r="G683" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="684">
@@ -19223,7 +19226,7 @@
         <v>1136</v>
       </c>
       <c r="G684" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="685">
@@ -19246,7 +19249,7 @@
         <v>1137</v>
       </c>
       <c r="G685" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="686">
@@ -19269,7 +19272,7 @@
         <v>1138</v>
       </c>
       <c r="G686" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="687">
@@ -19292,7 +19295,7 @@
         <v>1133</v>
       </c>
       <c r="G687" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="688">
@@ -19315,7 +19318,7 @@
         <v>1132</v>
       </c>
       <c r="G688" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="689">
@@ -19338,7 +19341,7 @@
         <v>1135</v>
       </c>
       <c r="G689" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="690">
@@ -19361,7 +19364,7 @@
         <v>1096</v>
       </c>
       <c r="G690" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="691">
@@ -19384,7 +19387,7 @@
         <v>1133</v>
       </c>
       <c r="G691" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="692">
@@ -19407,7 +19410,7 @@
         <v>1103</v>
       </c>
       <c r="G692" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="693">
@@ -19430,7 +19433,7 @@
         <v>1133</v>
       </c>
       <c r="G693" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="694">
@@ -19453,7 +19456,7 @@
         <v>1137</v>
       </c>
       <c r="G694" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="695">
@@ -19476,7 +19479,7 @@
         <v>1138</v>
       </c>
       <c r="G695" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="696">
@@ -19499,7 +19502,7 @@
         <v>1132</v>
       </c>
       <c r="G696" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="697">
@@ -19522,7 +19525,7 @@
         <v>1136</v>
       </c>
       <c r="G697" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="698">
@@ -19545,7 +19548,7 @@
         <v>1102</v>
       </c>
       <c r="G698" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="699">
@@ -19568,7 +19571,7 @@
         <v>1134</v>
       </c>
       <c r="G699" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="700">
@@ -19591,7 +19594,7 @@
         <v>1137</v>
       </c>
       <c r="G700" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="701">
@@ -19611,10 +19614,10 @@
         <v>1119</v>
       </c>
       <c r="F701" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G701" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="702">
@@ -19634,10 +19637,10 @@
         <v>1119</v>
       </c>
       <c r="F702" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G702" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="703">
@@ -19660,7 +19663,7 @@
         <v>1133</v>
       </c>
       <c r="G703" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="704">
@@ -19683,7 +19686,7 @@
         <v>1103</v>
       </c>
       <c r="G704" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="705">
@@ -19706,7 +19709,7 @@
         <v>1131</v>
       </c>
       <c r="G705" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="706">
@@ -19729,7 +19732,7 @@
         <v>1136</v>
       </c>
       <c r="G706" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="707">
@@ -19752,7 +19755,7 @@
         <v>1138</v>
       </c>
       <c r="G707" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="708">
@@ -19775,7 +19778,7 @@
         <v>1135</v>
       </c>
       <c r="G708" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="709">
@@ -19798,7 +19801,7 @@
         <v>1132</v>
       </c>
       <c r="G709" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="710">
@@ -19821,7 +19824,7 @@
         <v>1096</v>
       </c>
       <c r="G710" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="711">
@@ -19844,7 +19847,7 @@
         <v>1137</v>
       </c>
       <c r="G711" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="712">
@@ -19867,7 +19870,7 @@
         <v>1137</v>
       </c>
       <c r="G712" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="713">
@@ -19890,7 +19893,7 @@
         <v>1136</v>
       </c>
       <c r="G713" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="714">
@@ -19910,10 +19913,10 @@
         <v>1119</v>
       </c>
       <c r="F714" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G714" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="715">
@@ -19936,7 +19939,7 @@
         <v>1134</v>
       </c>
       <c r="G715" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="716">
@@ -19959,7 +19962,7 @@
         <v>1102</v>
       </c>
       <c r="G716" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="717">
@@ -19982,7 +19985,7 @@
         <v>1134</v>
       </c>
       <c r="G717" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="718">
@@ -20005,7 +20008,7 @@
         <v>1102</v>
       </c>
       <c r="G718" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="719">
@@ -20025,10 +20028,10 @@
         <v>1119</v>
       </c>
       <c r="F719" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G719" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="720">
@@ -20051,7 +20054,7 @@
         <v>1132</v>
       </c>
       <c r="G720" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="721">
@@ -20074,7 +20077,7 @@
         <v>1138</v>
       </c>
       <c r="G721" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="722">
@@ -20097,7 +20100,7 @@
         <v>1106</v>
       </c>
       <c r="G722" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="723">
@@ -20120,7 +20123,7 @@
         <v>1134</v>
       </c>
       <c r="G723" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="724">
@@ -20143,7 +20146,7 @@
         <v>1133</v>
       </c>
       <c r="G724" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="725">
@@ -20166,7 +20169,7 @@
         <v>1133</v>
       </c>
       <c r="G725" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="726">
@@ -20186,10 +20189,10 @@
         <v>1119</v>
       </c>
       <c r="F726" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G726" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="727">
@@ -20212,7 +20215,7 @@
         <v>1137</v>
       </c>
       <c r="G727" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="728">
@@ -20235,7 +20238,7 @@
         <v>1137</v>
       </c>
       <c r="G728" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="729">
@@ -20258,7 +20261,7 @@
         <v>1136</v>
       </c>
       <c r="G729" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="730">
@@ -20281,7 +20284,7 @@
         <v>1096</v>
       </c>
       <c r="G730" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="731">
@@ -20304,7 +20307,7 @@
         <v>1103</v>
       </c>
       <c r="G731" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="732">
@@ -20327,7 +20330,7 @@
         <v>1131</v>
       </c>
       <c r="G732" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="733">
@@ -20350,7 +20353,7 @@
         <v>1135</v>
       </c>
       <c r="G733" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="734">
@@ -20373,7 +20376,7 @@
         <v>1138</v>
       </c>
       <c r="G734" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="735">
@@ -20396,7 +20399,7 @@
         <v>1106</v>
       </c>
       <c r="G735" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="736">
@@ -20419,7 +20422,7 @@
         <v>1102</v>
       </c>
       <c r="G736" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="737">
@@ -20442,7 +20445,7 @@
         <v>1133</v>
       </c>
       <c r="G737" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="738">
@@ -20465,7 +20468,7 @@
         <v>1106</v>
       </c>
       <c r="G738" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="739">
@@ -20488,7 +20491,7 @@
         <v>1133</v>
       </c>
       <c r="G739" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="740">
@@ -20511,7 +20514,7 @@
         <v>1132</v>
       </c>
       <c r="G740" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="741">
@@ -20534,7 +20537,7 @@
         <v>1134</v>
       </c>
       <c r="G741" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="742">
@@ -20557,7 +20560,7 @@
         <v>1135</v>
       </c>
       <c r="G742" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="743">
@@ -20580,7 +20583,7 @@
         <v>1132</v>
       </c>
       <c r="G743" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="744">
@@ -20603,7 +20606,7 @@
         <v>1138</v>
       </c>
       <c r="G744" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="745">
@@ -20626,7 +20629,7 @@
         <v>1136</v>
       </c>
       <c r="G745" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="746">
@@ -20649,7 +20652,7 @@
         <v>1137</v>
       </c>
       <c r="G746" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="747">
@@ -20672,7 +20675,7 @@
         <v>1103</v>
       </c>
       <c r="G747" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="748">
@@ -20695,7 +20698,7 @@
         <v>1137</v>
       </c>
       <c r="G748" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="749">
@@ -20715,10 +20718,10 @@
         <v>1119</v>
       </c>
       <c r="F749" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G749" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="750">
@@ -20741,7 +20744,7 @@
         <v>1136</v>
       </c>
       <c r="G750" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="751">
@@ -20764,7 +20767,7 @@
         <v>1133</v>
       </c>
       <c r="G751" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="752">
@@ -20787,7 +20790,7 @@
         <v>1134</v>
       </c>
       <c r="G752" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="753">
@@ -20810,7 +20813,7 @@
         <v>1132</v>
       </c>
       <c r="G753" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="754">
@@ -20833,7 +20836,7 @@
         <v>1133</v>
       </c>
       <c r="G754" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="755">
@@ -20856,7 +20859,7 @@
         <v>1131</v>
       </c>
       <c r="G755" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="756">
@@ -20879,7 +20882,7 @@
         <v>1137</v>
       </c>
       <c r="G756" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="757">
@@ -20902,7 +20905,7 @@
         <v>1106</v>
       </c>
       <c r="G757" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="758">
@@ -20925,7 +20928,7 @@
         <v>1138</v>
       </c>
       <c r="G758" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="759">
@@ -20945,10 +20948,10 @@
         <v>1119</v>
       </c>
       <c r="F759" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G759" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="760">
@@ -20971,7 +20974,7 @@
         <v>1132</v>
       </c>
       <c r="G760" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="761">
@@ -20994,7 +20997,7 @@
         <v>1096</v>
       </c>
       <c r="G761" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="762">
@@ -21017,7 +21020,7 @@
         <v>1135</v>
       </c>
       <c r="G762" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="763">
@@ -21040,7 +21043,7 @@
         <v>1133</v>
       </c>
       <c r="G763" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="764">
@@ -21063,7 +21066,7 @@
         <v>1137</v>
       </c>
       <c r="G764" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="765">
@@ -21086,7 +21089,7 @@
         <v>1103</v>
       </c>
       <c r="G765" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="766">
@@ -21109,7 +21112,7 @@
         <v>1106</v>
       </c>
       <c r="G766" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="767">
@@ -21129,10 +21132,10 @@
         <v>1119</v>
       </c>
       <c r="F767" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G767" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="768">
@@ -21155,7 +21158,7 @@
         <v>1102</v>
       </c>
       <c r="G768" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="769">
@@ -21178,7 +21181,7 @@
         <v>1138</v>
       </c>
       <c r="G769" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="770">
@@ -21201,7 +21204,7 @@
         <v>1102</v>
       </c>
       <c r="G770" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="771">
@@ -21224,7 +21227,7 @@
         <v>1134</v>
       </c>
       <c r="G771" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="772">
@@ -21247,7 +21250,7 @@
         <v>1132</v>
       </c>
       <c r="G772" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="773">
@@ -21270,7 +21273,7 @@
         <v>1133</v>
       </c>
       <c r="G773" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="774">
@@ -21293,7 +21296,7 @@
         <v>1103</v>
       </c>
       <c r="G774" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="775">
@@ -21316,7 +21319,7 @@
         <v>1136</v>
       </c>
       <c r="G775" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="776">
@@ -21339,7 +21342,7 @@
         <v>1137</v>
       </c>
       <c r="G776" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="777">
@@ -21362,7 +21365,7 @@
         <v>1138</v>
       </c>
       <c r="G777" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="778">
@@ -21385,7 +21388,7 @@
         <v>1135</v>
       </c>
       <c r="G778" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="779">
@@ -21408,7 +21411,7 @@
         <v>1137</v>
       </c>
       <c r="G779" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="780">
@@ -21431,7 +21434,7 @@
         <v>1133</v>
       </c>
       <c r="G780" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="781">
@@ -21454,7 +21457,7 @@
         <v>1136</v>
       </c>
       <c r="G781" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="782">
@@ -21477,7 +21480,7 @@
         <v>1134</v>
       </c>
       <c r="G782" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="783">
@@ -21500,7 +21503,7 @@
         <v>1132</v>
       </c>
       <c r="G783" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="784">
@@ -21520,10 +21523,10 @@
         <v>1119</v>
       </c>
       <c r="F784" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G784" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="785">
@@ -21546,7 +21549,7 @@
         <v>1136</v>
       </c>
       <c r="G785" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="786">
@@ -21569,7 +21572,7 @@
         <v>1135</v>
       </c>
       <c r="G786" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="787">
@@ -21592,7 +21595,7 @@
         <v>1138</v>
       </c>
       <c r="G787" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="788">
@@ -21615,7 +21618,7 @@
         <v>1132</v>
       </c>
       <c r="G788" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="789">
@@ -21638,7 +21641,7 @@
         <v>1133</v>
       </c>
       <c r="G789" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="790">
@@ -21661,7 +21664,7 @@
         <v>1131</v>
       </c>
       <c r="G790" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="791">
@@ -21684,7 +21687,7 @@
         <v>1106</v>
       </c>
       <c r="G791" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="792">
@@ -21704,10 +21707,10 @@
         <v>1119</v>
       </c>
       <c r="F792" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G792" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="793">
@@ -21730,7 +21733,7 @@
         <v>1096</v>
       </c>
       <c r="G793" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="794">
@@ -21753,7 +21756,7 @@
         <v>1102</v>
       </c>
       <c r="G794" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="795">
@@ -21776,7 +21779,7 @@
         <v>1137</v>
       </c>
       <c r="G795" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="796">
@@ -21799,7 +21802,7 @@
         <v>1133</v>
       </c>
       <c r="G796" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="797">
@@ -21822,7 +21825,7 @@
         <v>1103</v>
       </c>
       <c r="G797" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="798">
@@ -21845,7 +21848,7 @@
         <v>1136</v>
       </c>
       <c r="G798" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="799">
@@ -21868,7 +21871,7 @@
         <v>1133</v>
       </c>
       <c r="G799" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="800">
@@ -21891,7 +21894,7 @@
         <v>1137</v>
       </c>
       <c r="G800" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="801">
@@ -21914,7 +21917,7 @@
         <v>1134</v>
       </c>
       <c r="G801" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="802">
@@ -21937,7 +21940,7 @@
         <v>1106</v>
       </c>
       <c r="G802" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="803">
@@ -21960,7 +21963,7 @@
         <v>1102</v>
       </c>
       <c r="G803" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="804">
@@ -21983,7 +21986,7 @@
         <v>1136</v>
       </c>
       <c r="G804" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="805">
@@ -22003,10 +22006,10 @@
         <v>1119</v>
       </c>
       <c r="F805" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G805" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="806">
@@ -22029,7 +22032,7 @@
         <v>1138</v>
       </c>
       <c r="G806" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="807">
@@ -22052,7 +22055,7 @@
         <v>1124</v>
       </c>
       <c r="G807" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="808">
@@ -22075,7 +22078,7 @@
         <v>1102</v>
       </c>
       <c r="G808" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="809">
@@ -22098,7 +22101,7 @@
         <v>1132</v>
       </c>
       <c r="G809" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="810">
@@ -22121,7 +22124,7 @@
         <v>1138</v>
       </c>
       <c r="G810" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="811">
@@ -22144,7 +22147,7 @@
         <v>1137</v>
       </c>
       <c r="G811" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="812">
@@ -22167,7 +22170,7 @@
         <v>1132</v>
       </c>
       <c r="G812" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="813">
@@ -22190,7 +22193,7 @@
         <v>1135</v>
       </c>
       <c r="G813" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="814">
@@ -22213,7 +22216,7 @@
         <v>1133</v>
       </c>
       <c r="G814" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="815">
@@ -22236,7 +22239,7 @@
         <v>1133</v>
       </c>
       <c r="G815" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="816">
@@ -22259,7 +22262,7 @@
         <v>1103</v>
       </c>
       <c r="G816" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="817">
@@ -22282,7 +22285,7 @@
         <v>1135</v>
       </c>
       <c r="G817" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="818">
@@ -22305,7 +22308,7 @@
         <v>1134</v>
       </c>
       <c r="G818" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="819">
@@ -22328,7 +22331,7 @@
         <v>1136</v>
       </c>
       <c r="G819" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="820">
@@ -22351,7 +22354,7 @@
         <v>1134</v>
       </c>
       <c r="G820" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="821">
@@ -22374,7 +22377,7 @@
         <v>1137</v>
       </c>
       <c r="G821" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="822">
@@ -22397,7 +22400,7 @@
         <v>1096</v>
       </c>
       <c r="G822" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="823">
@@ -22420,7 +22423,7 @@
         <v>1138</v>
       </c>
       <c r="G823" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="824">
@@ -22443,7 +22446,7 @@
         <v>1132</v>
       </c>
       <c r="G824" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="825">
@@ -22463,10 +22466,10 @@
         <v>1119</v>
       </c>
       <c r="F825" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G825" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="826">
@@ -22489,7 +22492,7 @@
         <v>1131</v>
       </c>
       <c r="G826" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="827">
@@ -22512,7 +22515,7 @@
         <v>1133</v>
       </c>
       <c r="G827" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="828">
@@ -22535,7 +22538,7 @@
         <v>1102</v>
       </c>
       <c r="G828" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="829">
@@ -22558,7 +22561,7 @@
         <v>1106</v>
       </c>
       <c r="G829" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="830">
@@ -22581,7 +22584,7 @@
         <v>1136</v>
       </c>
       <c r="G830" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="831">
@@ -22604,7 +22607,7 @@
         <v>1133</v>
       </c>
       <c r="G831" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="832">
@@ -22627,7 +22630,7 @@
         <v>1137</v>
       </c>
       <c r="G832" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="833">
@@ -22650,7 +22653,7 @@
         <v>1102</v>
       </c>
       <c r="G833" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="834">
@@ -22673,7 +22676,7 @@
         <v>1103</v>
       </c>
       <c r="G834" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="835">
@@ -22693,10 +22696,10 @@
         <v>1119</v>
       </c>
       <c r="F835" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G835" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="836">
@@ -22719,7 +22722,7 @@
         <v>1132</v>
       </c>
       <c r="G836" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="837">
@@ -22742,7 +22745,7 @@
         <v>1134</v>
       </c>
       <c r="G837" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="838">
@@ -22765,7 +22768,7 @@
         <v>1096</v>
       </c>
       <c r="G838" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="839">
@@ -22788,7 +22791,7 @@
         <v>1138</v>
       </c>
       <c r="G839" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="840">
@@ -22811,7 +22814,7 @@
         <v>1124</v>
       </c>
       <c r="G840" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="841">
@@ -22834,7 +22837,7 @@
         <v>1124</v>
       </c>
       <c r="G841" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="842">
@@ -22857,7 +22860,7 @@
         <v>1132</v>
       </c>
       <c r="G842" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="843">
@@ -22880,7 +22883,7 @@
         <v>1135</v>
       </c>
       <c r="G843" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="844">
@@ -22903,7 +22906,7 @@
         <v>1106</v>
       </c>
       <c r="G844" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="845">
@@ -22926,7 +22929,7 @@
         <v>1132</v>
       </c>
       <c r="G845" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="846">
@@ -22949,7 +22952,7 @@
         <v>1133</v>
       </c>
       <c r="G846" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="847">
@@ -22972,7 +22975,7 @@
         <v>1135</v>
       </c>
       <c r="G847" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="848">
@@ -22995,7 +22998,7 @@
         <v>1133</v>
       </c>
       <c r="G848" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="849">
@@ -23018,7 +23021,7 @@
         <v>1136</v>
       </c>
       <c r="G849" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="850">
@@ -23041,7 +23044,7 @@
         <v>1132</v>
       </c>
       <c r="G850" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="851">
@@ -23064,7 +23067,7 @@
         <v>1103</v>
       </c>
       <c r="G851" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="852">
@@ -23087,7 +23090,7 @@
         <v>1137</v>
       </c>
       <c r="G852" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="853">
@@ -23107,10 +23110,10 @@
         <v>1119</v>
       </c>
       <c r="F853" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G853" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="854">
@@ -23133,7 +23136,7 @@
         <v>1137</v>
       </c>
       <c r="G854" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="855">
@@ -23156,7 +23159,7 @@
         <v>1137</v>
       </c>
       <c r="G855" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="856">
@@ -23179,7 +23182,7 @@
         <v>1134</v>
       </c>
       <c r="G856" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="857">
@@ -23202,7 +23205,7 @@
         <v>1136</v>
       </c>
       <c r="G857" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="858">
@@ -23225,7 +23228,7 @@
         <v>1132</v>
       </c>
       <c r="G858" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="859">
@@ -23248,7 +23251,7 @@
         <v>1103</v>
       </c>
       <c r="G859" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="860">
@@ -23271,7 +23274,7 @@
         <v>1138</v>
       </c>
       <c r="G860" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="861">
@@ -23294,7 +23297,7 @@
         <v>1131</v>
       </c>
       <c r="G861" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="862">
@@ -23317,7 +23320,7 @@
         <v>1133</v>
       </c>
       <c r="G862" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="863">
@@ -23340,7 +23343,7 @@
         <v>1124</v>
       </c>
       <c r="G863" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="864">
@@ -23363,7 +23366,7 @@
         <v>1102</v>
       </c>
       <c r="G864" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="865">
@@ -23386,7 +23389,7 @@
         <v>1106</v>
       </c>
       <c r="G865" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="866">
@@ -23409,7 +23412,7 @@
         <v>1096</v>
       </c>
       <c r="G866" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="867">
@@ -23429,10 +23432,10 @@
         <v>1119</v>
       </c>
       <c r="F867" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G867" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="868">
@@ -23455,7 +23458,7 @@
         <v>1137</v>
       </c>
       <c r="G868" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="869">
@@ -23478,7 +23481,7 @@
         <v>1136</v>
       </c>
       <c r="G869" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="870">
@@ -23501,7 +23504,7 @@
         <v>1131</v>
       </c>
       <c r="G870" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="871">
@@ -23524,7 +23527,7 @@
         <v>1134</v>
       </c>
       <c r="G871" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="872">
@@ -23547,7 +23550,7 @@
         <v>1132</v>
       </c>
       <c r="G872" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="873">
@@ -23570,7 +23573,7 @@
         <v>1096</v>
       </c>
       <c r="G873" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="874">
@@ -23593,7 +23596,7 @@
         <v>1135</v>
       </c>
       <c r="G874" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="875">
@@ -23616,7 +23619,7 @@
         <v>1102</v>
       </c>
       <c r="G875" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="876">
@@ -23639,7 +23642,7 @@
         <v>1133</v>
       </c>
       <c r="G876" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="877">
@@ -23662,7 +23665,7 @@
         <v>1106</v>
       </c>
       <c r="G877" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="878">
@@ -23682,10 +23685,10 @@
         <v>1119</v>
       </c>
       <c r="F878" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G878" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="879">
@@ -23708,7 +23711,7 @@
         <v>1133</v>
       </c>
       <c r="G879" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="880">
@@ -23731,7 +23734,7 @@
         <v>1124</v>
       </c>
       <c r="G880" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="881">
@@ -23754,7 +23757,7 @@
         <v>1103</v>
       </c>
       <c r="G881" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="882">
@@ -23777,7 +23780,7 @@
         <v>1102</v>
       </c>
       <c r="G882" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="883">
@@ -23800,7 +23803,7 @@
         <v>1138</v>
       </c>
       <c r="G883" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="884">
@@ -23823,7 +23826,7 @@
         <v>1137</v>
       </c>
       <c r="G884" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="885">
@@ -23846,7 +23849,7 @@
         <v>1136</v>
       </c>
       <c r="G885" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="886">
@@ -23866,10 +23869,10 @@
         <v>1126</v>
       </c>
       <c r="F886" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G886" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="887">
@@ -23892,7 +23895,7 @@
         <v>1132</v>
       </c>
       <c r="G887" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="888">
@@ -23915,7 +23918,7 @@
         <v>1096</v>
       </c>
       <c r="G888" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="889">
@@ -23938,7 +23941,7 @@
         <v>1133</v>
       </c>
       <c r="G889" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="890">
@@ -23961,7 +23964,7 @@
         <v>1134</v>
       </c>
       <c r="G890" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="891">
@@ -23984,7 +23987,7 @@
         <v>1136</v>
       </c>
       <c r="G891" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="892">
@@ -24004,10 +24007,10 @@
         <v>1127</v>
       </c>
       <c r="F892" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G892" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="893">
@@ -24030,7 +24033,7 @@
         <v>1135</v>
       </c>
       <c r="G893" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="894">
@@ -24050,10 +24053,10 @@
         <v>1119</v>
       </c>
       <c r="F894" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G894" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="895">
@@ -24076,7 +24079,7 @@
         <v>1134</v>
       </c>
       <c r="G895" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="896">
@@ -24099,7 +24102,7 @@
         <v>1132</v>
       </c>
       <c r="G896" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="897">
@@ -24122,7 +24125,7 @@
         <v>1133</v>
       </c>
       <c r="G897" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="898">
@@ -24145,7 +24148,7 @@
         <v>1131</v>
       </c>
       <c r="G898" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="899">
@@ -24168,7 +24171,7 @@
         <v>1132</v>
       </c>
       <c r="G899" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="900">
@@ -24191,7 +24194,7 @@
         <v>1103</v>
       </c>
       <c r="G900" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="901">
@@ -24214,7 +24217,7 @@
         <v>1138</v>
       </c>
       <c r="G901" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="902">
@@ -24237,7 +24240,7 @@
         <v>1106</v>
       </c>
       <c r="G902" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="903">
@@ -24260,7 +24263,7 @@
         <v>1102</v>
       </c>
       <c r="G903" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="904">
@@ -24283,7 +24286,7 @@
         <v>1096</v>
       </c>
       <c r="G904" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="905">
@@ -24303,10 +24306,10 @@
         <v>1119</v>
       </c>
       <c r="F905" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G905" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="906">
@@ -24329,7 +24332,7 @@
         <v>1132</v>
       </c>
       <c r="G906" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="907">
@@ -24352,7 +24355,7 @@
         <v>1135</v>
       </c>
       <c r="G907" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="908">
@@ -24375,7 +24378,7 @@
         <v>1137</v>
       </c>
       <c r="G908" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="909">
@@ -24398,7 +24401,7 @@
         <v>1124</v>
       </c>
       <c r="G909" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="910">
@@ -24421,7 +24424,7 @@
         <v>1096</v>
       </c>
       <c r="G910" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="911">
@@ -24444,7 +24447,7 @@
         <v>1136</v>
       </c>
       <c r="G911" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="912">
@@ -24467,7 +24470,7 @@
         <v>1132</v>
       </c>
       <c r="G912" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="913">
@@ -24490,7 +24493,7 @@
         <v>1106</v>
       </c>
       <c r="G913" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="914">
@@ -24513,7 +24516,7 @@
         <v>1133</v>
       </c>
       <c r="G914" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="915">
@@ -24536,7 +24539,7 @@
         <v>1102</v>
       </c>
       <c r="G915" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="916">
@@ -24559,7 +24562,7 @@
         <v>1124</v>
       </c>
       <c r="G916" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="917">
@@ -24582,7 +24585,7 @@
         <v>1136</v>
       </c>
       <c r="G917" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="918">
@@ -24605,7 +24608,7 @@
         <v>1137</v>
       </c>
       <c r="G918" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="919">
@@ -24628,7 +24631,7 @@
         <v>1132</v>
       </c>
       <c r="G919" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="920">
@@ -24651,7 +24654,7 @@
         <v>1133</v>
       </c>
       <c r="G920" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="921">
@@ -24674,7 +24677,7 @@
         <v>1134</v>
       </c>
       <c r="G921" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="922">
@@ -24697,7 +24700,7 @@
         <v>1138</v>
       </c>
       <c r="G922" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="923">
@@ -24720,7 +24723,7 @@
         <v>1103</v>
       </c>
       <c r="G923" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="924">
@@ -24743,7 +24746,7 @@
         <v>1133</v>
       </c>
       <c r="G924" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="925">
@@ -24766,7 +24769,7 @@
         <v>1096</v>
       </c>
       <c r="G925" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="926">
@@ -24789,7 +24792,7 @@
         <v>1137</v>
       </c>
       <c r="G926" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="927">
@@ -24809,10 +24812,10 @@
         <v>1126</v>
       </c>
       <c r="F927" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G927" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="928">
@@ -24835,7 +24838,7 @@
         <v>1131</v>
       </c>
       <c r="G928" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="929">
@@ -24858,7 +24861,7 @@
         <v>1136</v>
       </c>
       <c r="G929" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="930">
@@ -24878,10 +24881,10 @@
         <v>1127</v>
       </c>
       <c r="F930" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G930" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="931">
@@ -24904,7 +24907,7 @@
         <v>1102</v>
       </c>
       <c r="G931" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="932">
@@ -24927,7 +24930,7 @@
         <v>1132</v>
       </c>
       <c r="G932" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="933">
@@ -24950,7 +24953,7 @@
         <v>1138</v>
       </c>
       <c r="G933" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="934">
@@ -24973,7 +24976,7 @@
         <v>1135</v>
       </c>
       <c r="G934" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="935">
@@ -24996,7 +24999,7 @@
         <v>1132</v>
       </c>
       <c r="G935" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="936">
@@ -25019,7 +25022,7 @@
         <v>1133</v>
       </c>
       <c r="G936" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="937">
@@ -25039,10 +25042,10 @@
         <v>1119</v>
       </c>
       <c r="F937" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G937" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="938">
@@ -25065,7 +25068,7 @@
         <v>1134</v>
       </c>
       <c r="G938" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="939">
@@ -25088,7 +25091,7 @@
         <v>1102</v>
       </c>
       <c r="G939" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="940">
@@ -25111,7 +25114,7 @@
         <v>1106</v>
       </c>
       <c r="G940" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="941">
@@ -25134,7 +25137,7 @@
         <v>1103</v>
       </c>
       <c r="G941" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="942">
@@ -25157,7 +25160,7 @@
         <v>1135</v>
       </c>
       <c r="G942" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="943">
@@ -25180,7 +25183,7 @@
         <v>1096</v>
       </c>
       <c r="G943" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="944">
@@ -25203,7 +25206,7 @@
         <v>1136</v>
       </c>
       <c r="G944" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="945">
@@ -25226,7 +25229,7 @@
         <v>1132</v>
       </c>
       <c r="G945" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="946">
@@ -25246,10 +25249,10 @@
         <v>1119</v>
       </c>
       <c r="F946" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G946" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="947">
@@ -25272,7 +25275,7 @@
         <v>1132</v>
       </c>
       <c r="G947" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="948">
@@ -25295,7 +25298,7 @@
         <v>1134</v>
       </c>
       <c r="G948" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="949">
@@ -25318,7 +25321,7 @@
         <v>1138</v>
       </c>
       <c r="G949" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="950">
@@ -25341,7 +25344,7 @@
         <v>1137</v>
       </c>
       <c r="G950" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="951">
@@ -25364,7 +25367,7 @@
         <v>1102</v>
       </c>
       <c r="G951" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="952">
@@ -25387,7 +25390,7 @@
         <v>1106</v>
       </c>
       <c r="G952" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="953">
@@ -25410,7 +25413,7 @@
         <v>1133</v>
       </c>
       <c r="G953" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="954">
@@ -25433,7 +25436,7 @@
         <v>1124</v>
       </c>
       <c r="G954" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="955">
@@ -25456,7 +25459,7 @@
         <v>1124</v>
       </c>
       <c r="G955" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="956">
@@ -25479,7 +25482,7 @@
         <v>1134</v>
       </c>
       <c r="G956" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="957">
@@ -25502,7 +25505,7 @@
         <v>1136</v>
       </c>
       <c r="G957" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="958">
@@ -25525,7 +25528,7 @@
         <v>1096</v>
       </c>
       <c r="G958" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="959">
@@ -25548,7 +25551,7 @@
         <v>1132</v>
       </c>
       <c r="G959" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="960">
@@ -25571,7 +25574,7 @@
         <v>1133</v>
       </c>
       <c r="G960" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="961">
@@ -25594,7 +25597,7 @@
         <v>1133</v>
       </c>
       <c r="G961" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="962">
@@ -25617,7 +25620,7 @@
         <v>1137</v>
       </c>
       <c r="G962" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="963">
@@ -25640,7 +25643,7 @@
         <v>1103</v>
       </c>
       <c r="G963" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="964">
@@ -25663,7 +25666,7 @@
         <v>1137</v>
       </c>
       <c r="G964" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="965">
@@ -25686,7 +25689,7 @@
         <v>1135</v>
       </c>
       <c r="G965" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="966">
@@ -25709,7 +25712,7 @@
         <v>1136</v>
       </c>
       <c r="G966" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="967">
@@ -25732,7 +25735,7 @@
         <v>1138</v>
       </c>
       <c r="G967" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="968">
@@ -25755,7 +25758,7 @@
         <v>1132</v>
       </c>
       <c r="G968" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="969">
@@ -25778,7 +25781,7 @@
         <v>1134</v>
       </c>
       <c r="G969" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="970">
@@ -25801,7 +25804,7 @@
         <v>1096</v>
       </c>
       <c r="G970" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="971">
@@ -25824,7 +25827,7 @@
         <v>1096</v>
       </c>
       <c r="G971" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="972">
@@ -25847,7 +25850,7 @@
         <v>1133</v>
       </c>
       <c r="G972" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="973">
@@ -25870,7 +25873,7 @@
         <v>1131</v>
       </c>
       <c r="G973" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="974">
@@ -25893,7 +25896,7 @@
         <v>1132</v>
       </c>
       <c r="G974" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="975">
@@ -25916,7 +25919,7 @@
         <v>1102</v>
       </c>
       <c r="G975" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="976">
@@ -25939,7 +25942,7 @@
         <v>1138</v>
       </c>
       <c r="G976" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="977">
@@ -25962,7 +25965,7 @@
         <v>1133</v>
       </c>
       <c r="G977" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="978">
@@ -25985,7 +25988,7 @@
         <v>1132</v>
       </c>
       <c r="G978" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="979">
@@ -26005,10 +26008,10 @@
         <v>1129</v>
       </c>
       <c r="F979" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G979" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="980">
@@ -26031,7 +26034,7 @@
         <v>1124</v>
       </c>
       <c r="G980" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="981">
@@ -26054,7 +26057,7 @@
         <v>1096</v>
       </c>
       <c r="G981" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="982">
@@ -26077,7 +26080,7 @@
         <v>1133</v>
       </c>
       <c r="G982" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="983">
@@ -26100,7 +26103,7 @@
         <v>1136</v>
       </c>
       <c r="G983" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="984">
@@ -26123,7 +26126,7 @@
         <v>1134</v>
       </c>
       <c r="G984" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="985">
@@ -26143,10 +26146,10 @@
         <v>1127</v>
       </c>
       <c r="F985" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G985" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="986">
@@ -26169,7 +26172,7 @@
         <v>1132</v>
       </c>
       <c r="G986" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="987">
@@ -26192,7 +26195,7 @@
         <v>1137</v>
       </c>
       <c r="G987" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="988">
@@ -26215,7 +26218,7 @@
         <v>1106</v>
       </c>
       <c r="G988" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="989">
@@ -26238,7 +26241,7 @@
         <v>1136</v>
       </c>
       <c r="G989" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="990">
@@ -26261,7 +26264,7 @@
         <v>1103</v>
       </c>
       <c r="G990" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="991">
@@ -26284,7 +26287,7 @@
         <v>1132</v>
       </c>
       <c r="G991" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="992">
@@ -26307,7 +26310,7 @@
         <v>1133</v>
       </c>
       <c r="G992" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="993">
@@ -26330,7 +26333,7 @@
         <v>1102</v>
       </c>
       <c r="G993" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="994">
@@ -26353,7 +26356,7 @@
         <v>1124</v>
       </c>
       <c r="G994" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="995">
@@ -26376,7 +26379,7 @@
         <v>1137</v>
       </c>
       <c r="G995" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="996">
@@ -26396,10 +26399,10 @@
         <v>1129</v>
       </c>
       <c r="F996" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G996" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="997">
@@ -26422,7 +26425,7 @@
         <v>1132</v>
       </c>
       <c r="G997" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="998">
@@ -26445,7 +26448,7 @@
         <v>1136</v>
       </c>
       <c r="G998" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="999">
@@ -26468,7 +26471,7 @@
         <v>1106</v>
       </c>
       <c r="G999" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1000">
@@ -26491,7 +26494,7 @@
         <v>1135</v>
       </c>
       <c r="G1000" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1001">
@@ -26514,7 +26517,7 @@
         <v>1135</v>
       </c>
       <c r="G1001" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1002">
@@ -26537,7 +26540,7 @@
         <v>1134</v>
       </c>
       <c r="G1002" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1003">
@@ -26560,7 +26563,7 @@
         <v>1133</v>
       </c>
       <c r="G1003" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1004">
@@ -26583,7 +26586,7 @@
         <v>1103</v>
       </c>
       <c r="G1004" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1005">
@@ -26606,7 +26609,7 @@
         <v>1134</v>
       </c>
       <c r="G1005" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1006">
@@ -26629,7 +26632,7 @@
         <v>1136</v>
       </c>
       <c r="G1006" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1007">
@@ -26652,7 +26655,7 @@
         <v>1134</v>
       </c>
       <c r="G1007" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
